--- a/acre_marine_data/Marine data/CAPE COAST CASTLE, GHANA(APRIL 1840 - FEBRUARY 1841).xlsx
+++ b/acre_marine_data/Marine data/CAPE COAST CASTLE, GHANA(APRIL 1840 - FEBRUARY 1841).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lamprini\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dcdc899b28ada8e9/Documents/GitHub/Tools1_Final/acre_marine_data/Marine data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_71C499A4AF25DCEFA5DAE3D6BB4FBB26FC538DA3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF9499FC-A67D-4088-A89F-EA01556ABA08}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1840-1841" sheetId="1" r:id="rId1"/>
@@ -120,11 +121,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -188,6 +189,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -197,11 +200,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -217,9 +218,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -257,7 +258,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -283,7 +283,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2342,6 +2342,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-00B0-4C08-80A9-25B2C34E6C88}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4392,6 +4397,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-00B0-4C08-80A9-25B2C34E6C88}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6442,6 +6452,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-00B0-4C08-80A9-25B2C34E6C88}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -8477,6 +8492,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-00B0-4C08-80A9-25B2C34E6C88}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8531,7 +8551,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="341753296"/>
@@ -8589,7 +8609,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="341752736"/>
@@ -8606,7 +8626,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8632,7 +8651,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8662,7 +8681,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8674,9 +8693,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8720,7 +8739,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8746,7 +8764,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10805,6 +10823,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C565-469C-ACEB-4BD75E59E100}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -12852,6 +12875,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C565-469C-ACEB-4BD75E59E100}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -12906,7 +12934,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="346510400"/>
@@ -12964,7 +12992,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="327752720"/>
@@ -12981,7 +13009,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13007,7 +13034,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13037,7 +13064,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13049,9 +13076,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13063,7 +13090,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13089,7 +13115,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14413,6 +14439,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0145-4916-B89F-E944D872876E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -14467,7 +14498,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="331855312"/>
@@ -14525,7 +14556,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="331854752"/>
@@ -14566,7 +14597,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14578,9 +14609,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14618,7 +14649,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14644,7 +14674,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -16703,6 +16733,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E77D-4017-9881-F8E5274B8C70}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -18750,6 +18785,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E77D-4017-9881-F8E5274B8C70}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -20800,6 +20840,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E77D-4017-9881-F8E5274B8C70}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -22850,6 +22895,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E77D-4017-9881-F8E5274B8C70}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -22904,7 +22954,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="345465952"/>
@@ -22962,7 +23012,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="345463712"/>
@@ -22979,7 +23029,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23005,7 +23054,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -23035,7 +23084,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -23047,9 +23096,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -23061,7 +23110,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23087,7 +23135,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -24400,6 +24448,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DFD7-44D5-A01B-9D9A92F8755A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -24455,7 +24508,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="458888912"/>
@@ -24513,7 +24566,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="458888352"/>
@@ -24554,7 +24607,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -24566,9 +24619,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="el-GR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -24580,7 +24633,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -24606,7 +24658,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="el-GR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -26665,6 +26717,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED15-46C4-A5EB-59611EAF8B17}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -26719,7 +26776,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456719168"/>
@@ -26777,7 +26834,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="el-GR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="456718608"/>
@@ -26818,7 +26875,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="el-GR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -30169,7 +30226,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Γράφημα 1"/>
+        <xdr:cNvPr id="2" name="Γράφημα 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -30201,7 +30264,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Γράφημα 2"/>
+        <xdr:cNvPr id="3" name="Γράφημα 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -30233,7 +30302,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Γράφημα 3"/>
+        <xdr:cNvPr id="4" name="Γράφημα 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -30265,7 +30340,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Γράφημα 4"/>
+        <xdr:cNvPr id="5" name="Γράφημα 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -30297,7 +30378,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Γράφημα 5"/>
+        <xdr:cNvPr id="6" name="Γράφημα 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -30329,7 +30416,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Γράφημα 6"/>
+        <xdr:cNvPr id="7" name="Γράφημα 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -30611,35 +30704,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R341"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="3" width="4.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
     <col min="5" max="5" width="15" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="16.42578125" style="8" customWidth="1"/>
-    <col min="10" max="11" width="16.42578125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" style="3" customWidth="1"/>
-    <col min="13" max="16" width="9.140625" style="3"/>
-    <col min="17" max="17" width="9.140625" style="8"/>
-    <col min="18" max="18" width="17.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="16.453125" style="8" customWidth="1"/>
+    <col min="10" max="11" width="16.453125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20" style="3" customWidth="1"/>
+    <col min="14" max="14" width="23.7265625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="33.90625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="36.6328125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" style="8"/>
+    <col min="18" max="18" width="17.81640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -30659,7 +30755,7 @@
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="I3" s="9" t="s">
         <v>5</v>
       </c>
@@ -30667,12 +30763,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="F4" s="9"/>
       <c r="G4" s="4"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -30682,42 +30778,42 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="15"/>
       <c r="J5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
     </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="14" t="s">
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="15"/>
       <c r="J6" s="5" t="s">
         <v>11</v>
       </c>
@@ -30734,7 +30830,7 @@
       </c>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E7" s="10" t="s">
         <v>20</v>
       </c>
@@ -30759,16 +30855,16 @@
       <c r="L7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="P7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="Q7" s="10" t="s">
@@ -30778,7 +30874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1840</v>
       </c>
@@ -30788,7 +30884,7 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>14702</v>
       </c>
       <c r="E8" s="8">
@@ -30831,7 +30927,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1840</v>
       </c>
@@ -30841,7 +30937,7 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>14703</v>
       </c>
       <c r="E9" s="8">
@@ -30884,7 +30980,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1840</v>
       </c>
@@ -30894,7 +30990,7 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>14704</v>
       </c>
       <c r="E10" s="8">
@@ -30937,7 +31033,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1840</v>
       </c>
@@ -30947,7 +31043,7 @@
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <v>14705</v>
       </c>
       <c r="E11" s="8">
@@ -30993,7 +31089,7 @@
         <v>29.52</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1840</v>
       </c>
@@ -31003,7 +31099,7 @@
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>14706</v>
       </c>
       <c r="E12" s="8">
@@ -31046,7 +31142,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1840</v>
       </c>
@@ -31056,7 +31152,7 @@
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="12">
         <v>14707</v>
       </c>
       <c r="E13" s="8">
@@ -31099,7 +31195,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1840</v>
       </c>
@@ -31109,7 +31205,7 @@
       <c r="C14">
         <v>7</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="12">
         <v>14708</v>
       </c>
       <c r="E14" s="8">
@@ -31152,7 +31248,7 @@
         <v>29.54</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1840</v>
       </c>
@@ -31162,7 +31258,7 @@
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="12">
         <v>14709</v>
       </c>
       <c r="E15" s="8">
@@ -31205,7 +31301,7 @@
         <v>29.475000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1840</v>
       </c>
@@ -31215,7 +31311,7 @@
       <c r="C16">
         <v>9</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="12">
         <v>14710</v>
       </c>
       <c r="E16" s="8">
@@ -31261,7 +31357,7 @@
         <v>29.463000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1840</v>
       </c>
@@ -31271,7 +31367,7 @@
       <c r="C17">
         <v>10</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="12">
         <v>14711</v>
       </c>
       <c r="E17" s="8">
@@ -31314,7 +31410,7 @@
         <v>29.457999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1840</v>
       </c>
@@ -31324,7 +31420,7 @@
       <c r="C18">
         <v>11</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="12">
         <v>14712</v>
       </c>
       <c r="E18" s="8">
@@ -31370,7 +31466,7 @@
         <v>29.524000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1840</v>
       </c>
@@ -31380,7 +31476,7 @@
       <c r="C19">
         <v>12</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="12">
         <v>14713</v>
       </c>
       <c r="E19" s="8">
@@ -31423,7 +31519,7 @@
         <v>29.457999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1840</v>
       </c>
@@ -31433,7 +31529,7 @@
       <c r="C20">
         <v>13</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="12">
         <v>14714</v>
       </c>
       <c r="E20" s="8">
@@ -31479,7 +31575,7 @@
         <v>29.51</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1840</v>
       </c>
@@ -31489,7 +31585,7 @@
       <c r="C21">
         <v>14</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="12">
         <v>14715</v>
       </c>
       <c r="E21" s="8">
@@ -31535,7 +31631,7 @@
         <v>29.556999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1840</v>
       </c>
@@ -31545,7 +31641,7 @@
       <c r="C22">
         <v>15</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="12">
         <v>14716</v>
       </c>
       <c r="E22" s="8">
@@ -31588,7 +31684,7 @@
         <v>29.515999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1840</v>
       </c>
@@ -31598,7 +31694,7 @@
       <c r="C23">
         <v>16</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="12">
         <v>14717</v>
       </c>
       <c r="E23" s="8">
@@ -31644,7 +31740,7 @@
         <v>29.488</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1840</v>
       </c>
@@ -31654,7 +31750,7 @@
       <c r="C24">
         <v>17</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="12">
         <v>14718</v>
       </c>
       <c r="E24" s="8">
@@ -31697,7 +31793,7 @@
         <v>29.437999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1840</v>
       </c>
@@ -31707,7 +31803,7 @@
       <c r="C25">
         <v>18</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="12">
         <v>14719</v>
       </c>
       <c r="E25" s="8">
@@ -31750,7 +31846,7 @@
         <v>29.454999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1840</v>
       </c>
@@ -31760,7 +31856,7 @@
       <c r="C26">
         <v>19</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="12">
         <v>14720</v>
       </c>
       <c r="E26" s="8">
@@ -31803,7 +31899,7 @@
         <v>29.45</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1840</v>
       </c>
@@ -31813,7 +31909,7 @@
       <c r="C27">
         <v>20</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="12">
         <v>14721</v>
       </c>
       <c r="E27" s="8">
@@ -31859,7 +31955,7 @@
         <v>29.518000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1840</v>
       </c>
@@ -31869,7 +31965,7 @@
       <c r="C28">
         <v>21</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="12">
         <v>14722</v>
       </c>
       <c r="E28" s="8">
@@ -31912,7 +32008,7 @@
         <v>29.547999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1840</v>
       </c>
@@ -31922,7 +32018,7 @@
       <c r="C29">
         <v>22</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="12">
         <v>14723</v>
       </c>
       <c r="E29" s="8">
@@ -31965,7 +32061,7 @@
         <v>29.494</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1840</v>
       </c>
@@ -31975,7 +32071,7 @@
       <c r="C30">
         <v>23</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="12">
         <v>14724</v>
       </c>
       <c r="E30" s="8">
@@ -32018,7 +32114,7 @@
         <v>29.481000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1840</v>
       </c>
@@ -32028,7 +32124,7 @@
       <c r="C31">
         <v>24</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="12">
         <v>14725</v>
       </c>
       <c r="E31" s="8">
@@ -32071,7 +32167,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1840</v>
       </c>
@@ -32081,7 +32177,7 @@
       <c r="C32">
         <v>25</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="12">
         <v>14726</v>
       </c>
       <c r="E32" s="8">
@@ -32127,7 +32223,7 @@
         <v>29.492000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1840</v>
       </c>
@@ -32137,7 +32233,7 @@
       <c r="C33">
         <v>26</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="12">
         <v>14727</v>
       </c>
       <c r="E33" s="8">
@@ -32180,7 +32276,7 @@
         <v>29.497</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1840</v>
       </c>
@@ -32190,7 +32286,7 @@
       <c r="C34">
         <v>27</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="12">
         <v>14728</v>
       </c>
       <c r="E34" s="8">
@@ -32233,7 +32329,7 @@
         <v>29.457999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1840</v>
       </c>
@@ -32243,7 +32339,7 @@
       <c r="C35">
         <v>28</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="12">
         <v>14729</v>
       </c>
       <c r="E35" s="8">
@@ -32286,7 +32382,7 @@
         <v>29.468</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1840</v>
       </c>
@@ -32296,7 +32392,7 @@
       <c r="C36">
         <v>29</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="12">
         <v>14730</v>
       </c>
       <c r="E36" s="8">
@@ -32339,7 +32435,7 @@
         <v>29.463999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1840</v>
       </c>
@@ -32349,7 +32445,7 @@
       <c r="C37">
         <v>30</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D37" s="12">
         <v>14731</v>
       </c>
       <c r="E37" s="8">
@@ -32392,7 +32488,7 @@
         <v>29.478999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1840</v>
       </c>
@@ -32402,7 +32498,7 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="12">
         <v>14732</v>
       </c>
       <c r="E38" s="8">
@@ -32445,7 +32541,7 @@
         <v>29.475000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1840</v>
       </c>
@@ -32455,7 +32551,7 @@
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D39" s="12">
         <v>14733</v>
       </c>
       <c r="E39" s="8">
@@ -32498,7 +32594,7 @@
         <v>29.452000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1840</v>
       </c>
@@ -32508,7 +32604,7 @@
       <c r="C40">
         <v>3</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D40" s="12">
         <v>14734</v>
       </c>
       <c r="E40" s="8">
@@ -32554,7 +32650,7 @@
         <v>29.457999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1840</v>
       </c>
@@ -32564,7 +32660,7 @@
       <c r="C41">
         <v>4</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D41" s="12">
         <v>14735</v>
       </c>
       <c r="E41" s="8">
@@ -32607,7 +32703,7 @@
         <v>29.460999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1840</v>
       </c>
@@ -32617,7 +32713,7 @@
       <c r="C42">
         <v>5</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D42" s="12">
         <v>14736</v>
       </c>
       <c r="E42" s="8">
@@ -32663,7 +32759,7 @@
         <v>29.437999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1840</v>
       </c>
@@ -32673,7 +32769,7 @@
       <c r="C43">
         <v>6</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="12">
         <v>14737</v>
       </c>
       <c r="E43" s="8">
@@ -32719,7 +32815,7 @@
         <v>29.42</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1840</v>
       </c>
@@ -32729,7 +32825,7 @@
       <c r="C44">
         <v>7</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D44" s="12">
         <v>14738</v>
       </c>
       <c r="E44" s="8">
@@ -32772,7 +32868,7 @@
         <v>29.437999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1840</v>
       </c>
@@ -32782,7 +32878,7 @@
       <c r="C45">
         <v>8</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="12">
         <v>14739</v>
       </c>
       <c r="E45" s="8">
@@ -32828,7 +32924,7 @@
         <v>29.48</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1840</v>
       </c>
@@ -32838,7 +32934,7 @@
       <c r="C46">
         <v>9</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D46" s="12">
         <v>14740</v>
       </c>
       <c r="E46" s="8">
@@ -32884,7 +32980,7 @@
         <v>29.503</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1840</v>
       </c>
@@ -32894,7 +32990,7 @@
       <c r="C47">
         <v>10</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D47" s="12">
         <v>14741</v>
       </c>
       <c r="E47" s="8">
@@ -32937,7 +33033,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>1840</v>
       </c>
@@ -32947,7 +33043,7 @@
       <c r="C48">
         <v>11</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="12">
         <v>14742</v>
       </c>
       <c r="E48" s="8">
@@ -32993,7 +33089,7 @@
         <v>29.491</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1840</v>
       </c>
@@ -33003,7 +33099,7 @@
       <c r="C49">
         <v>12</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D49" s="12">
         <v>14743</v>
       </c>
       <c r="E49" s="8">
@@ -33049,7 +33145,7 @@
         <v>29.486000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1840</v>
       </c>
@@ -33059,7 +33155,7 @@
       <c r="C50">
         <v>13</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="12">
         <v>14744</v>
       </c>
       <c r="E50" s="8">
@@ -33105,7 +33201,7 @@
         <v>29.468</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>1840</v>
       </c>
@@ -33115,7 +33211,7 @@
       <c r="C51">
         <v>14</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D51" s="12">
         <v>14745</v>
       </c>
       <c r="E51" s="8">
@@ -33161,7 +33257,7 @@
         <v>29.45</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>1840</v>
       </c>
@@ -33171,7 +33267,7 @@
       <c r="C52">
         <v>15</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="12">
         <v>14746</v>
       </c>
       <c r="E52" s="8">
@@ -33217,7 +33313,7 @@
         <v>29.55</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1840</v>
       </c>
@@ -33227,7 +33323,7 @@
       <c r="C53">
         <v>16</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="12">
         <v>14747</v>
       </c>
       <c r="E53" s="8">
@@ -33273,7 +33369,7 @@
         <v>29.527999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>1840</v>
       </c>
@@ -33283,7 +33379,7 @@
       <c r="C54">
         <v>17</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D54" s="12">
         <v>14748</v>
       </c>
       <c r="E54" s="8">
@@ -33329,7 +33425,7 @@
         <v>29.542999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1840</v>
       </c>
@@ -33339,7 +33435,7 @@
       <c r="C55">
         <v>18</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D55" s="12">
         <v>14749</v>
       </c>
       <c r="E55" s="8">
@@ -33382,7 +33478,7 @@
         <v>29.52</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1840</v>
       </c>
@@ -33392,7 +33488,7 @@
       <c r="C56">
         <v>19</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D56" s="12">
         <v>14750</v>
       </c>
       <c r="E56" s="8">
@@ -33435,7 +33531,7 @@
         <v>29.521000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>1840</v>
       </c>
@@ -33445,7 +33541,7 @@
       <c r="C57">
         <v>20</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D57" s="12">
         <v>14751</v>
       </c>
       <c r="E57" s="8">
@@ -33491,7 +33587,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>1840</v>
       </c>
@@ -33501,7 +33597,7 @@
       <c r="C58">
         <v>21</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D58" s="12">
         <v>14752</v>
       </c>
       <c r="E58" s="8">
@@ -33547,7 +33643,7 @@
         <v>29.48</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>1840</v>
       </c>
@@ -33557,7 +33653,7 @@
       <c r="C59">
         <v>22</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D59" s="12">
         <v>14753</v>
       </c>
       <c r="E59" s="8">
@@ -33600,7 +33696,7 @@
         <v>29.466999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1840</v>
       </c>
@@ -33610,7 +33706,7 @@
       <c r="C60">
         <v>23</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D60" s="12">
         <v>14754</v>
       </c>
       <c r="E60" s="8">
@@ -33656,7 +33752,7 @@
         <v>29.462</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>1840</v>
       </c>
@@ -33666,7 +33762,7 @@
       <c r="C61">
         <v>24</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="12">
         <v>14755</v>
       </c>
       <c r="E61" s="8">
@@ -33712,7 +33808,7 @@
         <v>29.524000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1840</v>
       </c>
@@ -33722,7 +33818,7 @@
       <c r="C62">
         <v>25</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D62" s="12">
         <v>14756</v>
       </c>
       <c r="E62" s="8">
@@ -33768,7 +33864,7 @@
         <v>29.495000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1840</v>
       </c>
@@ -33778,7 +33874,7 @@
       <c r="C63">
         <v>26</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D63" s="12">
         <v>14757</v>
       </c>
       <c r="E63" s="8">
@@ -33821,7 +33917,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1840</v>
       </c>
@@ -33831,7 +33927,7 @@
       <c r="C64">
         <v>27</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D64" s="12">
         <v>14758</v>
       </c>
       <c r="E64" s="8">
@@ -33877,7 +33973,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1840</v>
       </c>
@@ -33887,7 +33983,7 @@
       <c r="C65">
         <v>28</v>
       </c>
-      <c r="D65" s="15">
+      <c r="D65" s="12">
         <v>14759</v>
       </c>
       <c r="E65" s="8">
@@ -33933,7 +34029,7 @@
         <v>29.513999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1840</v>
       </c>
@@ -33943,7 +34039,7 @@
       <c r="C66">
         <v>29</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="12">
         <v>14760</v>
       </c>
       <c r="E66" s="8">
@@ -33989,7 +34085,7 @@
         <v>29.568000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>1840</v>
       </c>
@@ -33999,7 +34095,7 @@
       <c r="C67">
         <v>30</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D67" s="12">
         <v>14761</v>
       </c>
       <c r="E67" s="8">
@@ -34042,7 +34138,7 @@
         <v>29.55</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>1840</v>
       </c>
@@ -34052,7 +34148,7 @@
       <c r="C68">
         <v>31</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D68" s="12">
         <v>14762</v>
       </c>
       <c r="E68" s="8">
@@ -34095,7 +34191,7 @@
         <v>29.52</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>1840</v>
       </c>
@@ -34105,7 +34201,7 @@
       <c r="C69">
         <v>1</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D69" s="12">
         <v>14763</v>
       </c>
       <c r="E69" s="8">
@@ -34151,7 +34247,7 @@
         <v>29.518000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1840</v>
       </c>
@@ -34161,7 +34257,7 @@
       <c r="C70">
         <v>2</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D70" s="12">
         <v>14764</v>
       </c>
       <c r="E70" s="8">
@@ -34207,7 +34303,7 @@
         <v>29.544</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1840</v>
       </c>
@@ -34217,7 +34313,7 @@
       <c r="C71">
         <v>3</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D71" s="12">
         <v>14765</v>
       </c>
       <c r="E71" s="8">
@@ -34263,7 +34359,7 @@
         <v>29.536000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>1840</v>
       </c>
@@ -34273,7 +34369,7 @@
       <c r="C72">
         <v>4</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="12">
         <v>14766</v>
       </c>
       <c r="E72" s="8">
@@ -34319,7 +34415,7 @@
         <v>29.562000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>1840</v>
       </c>
@@ -34329,7 +34425,7 @@
       <c r="C73">
         <v>5</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="12">
         <v>14767</v>
       </c>
       <c r="E73" s="8">
@@ -34375,7 +34471,7 @@
         <v>29.555</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>1840</v>
       </c>
@@ -34385,7 +34481,7 @@
       <c r="C74">
         <v>6</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="12">
         <v>14768</v>
       </c>
       <c r="E74" s="8">
@@ -34431,7 +34527,7 @@
         <v>29.597000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>1840</v>
       </c>
@@ -34441,7 +34537,7 @@
       <c r="C75">
         <v>7</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="12">
         <v>14769</v>
       </c>
       <c r="E75" s="8">
@@ -34487,7 +34583,7 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>1840</v>
       </c>
@@ -34497,7 +34593,7 @@
       <c r="C76">
         <v>8</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="12">
         <v>14770</v>
       </c>
       <c r="E76" s="8">
@@ -34543,7 +34639,7 @@
         <v>29.54</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>1840</v>
       </c>
@@ -34553,7 +34649,7 @@
       <c r="C77">
         <v>9</v>
       </c>
-      <c r="D77" s="15">
+      <c r="D77" s="12">
         <v>14771</v>
       </c>
       <c r="E77" s="8">
@@ -34599,7 +34695,7 @@
         <v>29.555</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1840</v>
       </c>
@@ -34609,7 +34705,7 @@
       <c r="C78">
         <v>10</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D78" s="12">
         <v>14772</v>
       </c>
       <c r="E78" s="8">
@@ -34655,7 +34751,7 @@
         <v>29.504000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1840</v>
       </c>
@@ -34665,7 +34761,7 @@
       <c r="C79">
         <v>11</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D79" s="12">
         <v>14773</v>
       </c>
       <c r="E79" s="8">
@@ -34711,7 +34807,7 @@
         <v>29.52</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>1840</v>
       </c>
@@ -34721,7 +34817,7 @@
       <c r="C80">
         <v>12</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D80" s="12">
         <v>14774</v>
       </c>
       <c r="E80" s="8">
@@ -34764,7 +34860,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>1840</v>
       </c>
@@ -34774,7 +34870,7 @@
       <c r="C81">
         <v>13</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D81" s="12">
         <v>14775</v>
       </c>
       <c r="E81" s="8">
@@ -34820,7 +34916,7 @@
         <v>29.54</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1840</v>
       </c>
@@ -34830,7 +34926,7 @@
       <c r="C82">
         <v>14</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D82" s="12">
         <v>14776</v>
       </c>
       <c r="E82" s="8">
@@ -34876,7 +34972,7 @@
         <v>29.54</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1840</v>
       </c>
@@ -34886,7 +34982,7 @@
       <c r="C83">
         <v>15</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D83" s="12">
         <v>14777</v>
       </c>
       <c r="E83" s="8">
@@ -34932,7 +35028,7 @@
         <v>29.48</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1840</v>
       </c>
@@ -34942,7 +35038,7 @@
       <c r="C84">
         <v>16</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D84" s="12">
         <v>14778</v>
       </c>
       <c r="E84" s="8">
@@ -34988,7 +35084,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1840</v>
       </c>
@@ -34998,7 +35094,7 @@
       <c r="C85">
         <v>17</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D85" s="12">
         <v>14779</v>
       </c>
       <c r="E85" s="8">
@@ -35041,7 +35137,7 @@
         <v>29.547000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>1840</v>
       </c>
@@ -35051,7 +35147,7 @@
       <c r="C86">
         <v>18</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D86" s="12">
         <v>14780</v>
       </c>
       <c r="E86" s="8">
@@ -35094,7 +35190,7 @@
         <v>29.558</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1840</v>
       </c>
@@ -35104,7 +35200,7 @@
       <c r="C87">
         <v>19</v>
       </c>
-      <c r="D87" s="15">
+      <c r="D87" s="12">
         <v>14781</v>
       </c>
       <c r="E87" s="8">
@@ -35147,7 +35243,7 @@
         <v>29.558</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>1840</v>
       </c>
@@ -35157,7 +35253,7 @@
       <c r="C88">
         <v>20</v>
       </c>
-      <c r="D88" s="15">
+      <c r="D88" s="12">
         <v>14782</v>
       </c>
       <c r="E88" s="8">
@@ -35203,7 +35299,7 @@
         <v>29.61</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1840</v>
       </c>
@@ -35213,7 +35309,7 @@
       <c r="C89">
         <v>21</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D89" s="12">
         <v>14783</v>
       </c>
       <c r="E89" s="8">
@@ -35259,7 +35355,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>1840</v>
       </c>
@@ -35269,7 +35365,7 @@
       <c r="C90">
         <v>22</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D90" s="12">
         <v>14784</v>
       </c>
       <c r="E90" s="8">
@@ -35315,7 +35411,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>1840</v>
       </c>
@@ -35325,7 +35421,7 @@
       <c r="C91">
         <v>23</v>
       </c>
-      <c r="D91" s="15">
+      <c r="D91" s="12">
         <v>14785</v>
       </c>
       <c r="E91" s="8">
@@ -35368,7 +35464,7 @@
         <v>29.623000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>1840</v>
       </c>
@@ -35378,7 +35474,7 @@
       <c r="C92">
         <v>24</v>
       </c>
-      <c r="D92" s="15">
+      <c r="D92" s="12">
         <v>14786</v>
       </c>
       <c r="E92" s="8">
@@ -35421,7 +35517,7 @@
         <v>29.61</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1840</v>
       </c>
@@ -35431,7 +35527,7 @@
       <c r="C93">
         <v>25</v>
       </c>
-      <c r="D93" s="15">
+      <c r="D93" s="12">
         <v>14787</v>
       </c>
       <c r="E93" s="8">
@@ -35477,7 +35573,7 @@
         <v>29.605</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1840</v>
       </c>
@@ -35487,7 +35583,7 @@
       <c r="C94">
         <v>26</v>
       </c>
-      <c r="D94" s="15">
+      <c r="D94" s="12">
         <v>14788</v>
       </c>
       <c r="E94" s="8">
@@ -35533,7 +35629,7 @@
         <v>29.698</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>1840</v>
       </c>
@@ -35543,7 +35639,7 @@
       <c r="C95">
         <v>27</v>
       </c>
-      <c r="D95" s="15">
+      <c r="D95" s="12">
         <v>14789</v>
       </c>
       <c r="E95" s="8">
@@ -35589,7 +35685,7 @@
         <v>29.71</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>1840</v>
       </c>
@@ -35599,7 +35695,7 @@
       <c r="C96">
         <v>28</v>
       </c>
-      <c r="D96" s="15">
+      <c r="D96" s="12">
         <v>14790</v>
       </c>
       <c r="E96" s="8">
@@ -35642,7 +35738,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>1840</v>
       </c>
@@ -35652,7 +35748,7 @@
       <c r="C97">
         <v>29</v>
       </c>
-      <c r="D97" s="15">
+      <c r="D97" s="12">
         <v>14791</v>
       </c>
       <c r="E97" s="8">
@@ -35689,7 +35785,7 @@
         <v>29.56</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>1840</v>
       </c>
@@ -35699,7 +35795,7 @@
       <c r="C98">
         <v>30</v>
       </c>
-      <c r="D98" s="15">
+      <c r="D98" s="12">
         <v>14792</v>
       </c>
       <c r="E98" s="8">
@@ -35736,7 +35832,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>1840</v>
       </c>
@@ -35746,7 +35842,7 @@
       <c r="C99">
         <v>1</v>
       </c>
-      <c r="D99" s="15">
+      <c r="D99" s="12">
         <v>14793</v>
       </c>
       <c r="E99" s="8">
@@ -35783,7 +35879,7 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>1840</v>
       </c>
@@ -35793,7 +35889,7 @@
       <c r="C100">
         <v>2</v>
       </c>
-      <c r="D100" s="15">
+      <c r="D100" s="12">
         <v>14794</v>
       </c>
       <c r="E100" s="8">
@@ -35830,7 +35926,7 @@
         <v>29.58</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>1840</v>
       </c>
@@ -35840,7 +35936,7 @@
       <c r="C101">
         <v>3</v>
       </c>
-      <c r="D101" s="15">
+      <c r="D101" s="12">
         <v>14795</v>
       </c>
       <c r="E101" s="8">
@@ -35877,7 +35973,7 @@
         <v>29.58</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>1840</v>
       </c>
@@ -35887,7 +35983,7 @@
       <c r="C102">
         <v>4</v>
       </c>
-      <c r="D102" s="15">
+      <c r="D102" s="12">
         <v>14796</v>
       </c>
       <c r="E102" s="8">
@@ -35924,7 +36020,7 @@
         <v>29.582000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>1840</v>
       </c>
@@ -35934,7 +36030,7 @@
       <c r="C103">
         <v>5</v>
       </c>
-      <c r="D103" s="15">
+      <c r="D103" s="12">
         <v>14797</v>
       </c>
       <c r="E103" s="8">
@@ -35971,7 +36067,7 @@
         <v>29.585000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1840</v>
       </c>
@@ -35981,7 +36077,7 @@
       <c r="C104">
         <v>6</v>
       </c>
-      <c r="D104" s="15">
+      <c r="D104" s="12">
         <v>14798</v>
       </c>
       <c r="E104" s="8">
@@ -36018,7 +36114,7 @@
         <v>29.574000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>1840</v>
       </c>
@@ -36028,7 +36124,7 @@
       <c r="C105">
         <v>7</v>
       </c>
-      <c r="D105" s="15">
+      <c r="D105" s="12">
         <v>14799</v>
       </c>
       <c r="E105" s="8">
@@ -36068,7 +36164,7 @@
         <v>29.597999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1840</v>
       </c>
@@ -36078,7 +36174,7 @@
       <c r="C106">
         <v>8</v>
       </c>
-      <c r="D106" s="15">
+      <c r="D106" s="12">
         <v>14800</v>
       </c>
       <c r="E106" s="8">
@@ -36118,7 +36214,7 @@
         <v>29.635000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1840</v>
       </c>
@@ -36128,7 +36224,7 @@
       <c r="C107">
         <v>9</v>
       </c>
-      <c r="D107" s="15">
+      <c r="D107" s="12">
         <v>14801</v>
       </c>
       <c r="E107" s="8">
@@ -36165,7 +36261,7 @@
         <v>29.65</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1840</v>
       </c>
@@ -36175,7 +36271,7 @@
       <c r="C108">
         <v>10</v>
       </c>
-      <c r="D108" s="15">
+      <c r="D108" s="12">
         <v>14802</v>
       </c>
       <c r="E108" s="8">
@@ -36212,7 +36308,7 @@
         <v>29.68</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1840</v>
       </c>
@@ -36222,7 +36318,7 @@
       <c r="C109">
         <v>11</v>
       </c>
-      <c r="D109" s="15">
+      <c r="D109" s="12">
         <v>14803</v>
       </c>
       <c r="E109" s="8">
@@ -36259,7 +36355,7 @@
         <v>29.635000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>1840</v>
       </c>
@@ -36269,7 +36365,7 @@
       <c r="C110">
         <v>12</v>
       </c>
-      <c r="D110" s="15">
+      <c r="D110" s="12">
         <v>14804</v>
       </c>
       <c r="E110" s="8">
@@ -36306,7 +36402,7 @@
         <v>29.645</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>1840</v>
       </c>
@@ -36316,7 +36412,7 @@
       <c r="C111">
         <v>13</v>
       </c>
-      <c r="D111" s="15">
+      <c r="D111" s="12">
         <v>14805</v>
       </c>
       <c r="E111" s="8">
@@ -36356,7 +36452,7 @@
         <v>29.625</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>1840</v>
       </c>
@@ -36366,7 +36462,7 @@
       <c r="C112">
         <v>14</v>
       </c>
-      <c r="D112" s="15">
+      <c r="D112" s="12">
         <v>14806</v>
       </c>
       <c r="E112" s="8">
@@ -36403,7 +36499,7 @@
         <v>29.61</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>1840</v>
       </c>
@@ -36413,7 +36509,7 @@
       <c r="C113">
         <v>15</v>
       </c>
-      <c r="D113" s="15">
+      <c r="D113" s="12">
         <v>14807</v>
       </c>
       <c r="E113" s="8">
@@ -36450,7 +36546,7 @@
         <v>29.63</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>1840</v>
       </c>
@@ -36460,7 +36556,7 @@
       <c r="C114">
         <v>16</v>
       </c>
-      <c r="D114" s="15">
+      <c r="D114" s="12">
         <v>14808</v>
       </c>
       <c r="E114" s="8">
@@ -36497,7 +36593,7 @@
         <v>29.638000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>1840</v>
       </c>
@@ -36507,7 +36603,7 @@
       <c r="C115">
         <v>17</v>
       </c>
-      <c r="D115" s="15">
+      <c r="D115" s="12">
         <v>14809</v>
       </c>
       <c r="E115" s="8">
@@ -36547,7 +36643,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>1840</v>
       </c>
@@ -36557,7 +36653,7 @@
       <c r="C116">
         <v>18</v>
       </c>
-      <c r="D116" s="15">
+      <c r="D116" s="12">
         <v>14810</v>
       </c>
       <c r="E116" s="8">
@@ -36594,7 +36690,7 @@
         <v>29.635999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>1840</v>
       </c>
@@ -36604,7 +36700,7 @@
       <c r="C117">
         <v>19</v>
       </c>
-      <c r="D117" s="15">
+      <c r="D117" s="12">
         <v>14811</v>
       </c>
       <c r="E117" s="8">
@@ -36641,7 +36737,7 @@
         <v>29.661999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>1840</v>
       </c>
@@ -36651,7 +36747,7 @@
       <c r="C118">
         <v>20</v>
       </c>
-      <c r="D118" s="15">
+      <c r="D118" s="12">
         <v>14812</v>
       </c>
       <c r="E118" s="8">
@@ -36688,7 +36784,7 @@
         <v>29.675000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1840</v>
       </c>
@@ -36698,7 +36794,7 @@
       <c r="C119">
         <v>21</v>
       </c>
-      <c r="D119" s="15">
+      <c r="D119" s="12">
         <v>14813</v>
       </c>
       <c r="E119" s="8">
@@ -36735,7 +36831,7 @@
         <v>29.64</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>1840</v>
       </c>
@@ -36745,7 +36841,7 @@
       <c r="C120">
         <v>22</v>
       </c>
-      <c r="D120" s="15">
+      <c r="D120" s="12">
         <v>14814</v>
       </c>
       <c r="E120" s="8">
@@ -36782,7 +36878,7 @@
         <v>29.645</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1840</v>
       </c>
@@ -36792,7 +36888,7 @@
       <c r="C121">
         <v>23</v>
       </c>
-      <c r="D121" s="15">
+      <c r="D121" s="12">
         <v>14815</v>
       </c>
       <c r="E121" s="8">
@@ -36829,7 +36925,7 @@
         <v>29.655000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1840</v>
       </c>
@@ -36839,7 +36935,7 @@
       <c r="C122">
         <v>24</v>
       </c>
-      <c r="D122" s="15">
+      <c r="D122" s="12">
         <v>14816</v>
       </c>
       <c r="E122" s="8">
@@ -36876,7 +36972,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1840</v>
       </c>
@@ -36886,7 +36982,7 @@
       <c r="C123">
         <v>25</v>
       </c>
-      <c r="D123" s="15">
+      <c r="D123" s="12">
         <v>14817</v>
       </c>
       <c r="E123" s="8">
@@ -36923,7 +37019,7 @@
         <v>29.66</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>1840</v>
       </c>
@@ -36933,7 +37029,7 @@
       <c r="C124">
         <v>26</v>
       </c>
-      <c r="D124" s="15">
+      <c r="D124" s="12">
         <v>14818</v>
       </c>
       <c r="E124" s="8">
@@ -36970,7 +37066,7 @@
         <v>29.66</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1840</v>
       </c>
@@ -36980,7 +37076,7 @@
       <c r="C125">
         <v>27</v>
       </c>
-      <c r="D125" s="15">
+      <c r="D125" s="12">
         <v>14819</v>
       </c>
       <c r="E125" s="8">
@@ -37017,7 +37113,7 @@
         <v>29.641999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1840</v>
       </c>
@@ -37027,7 +37123,7 @@
       <c r="C126">
         <v>28</v>
       </c>
-      <c r="D126" s="15">
+      <c r="D126" s="12">
         <v>14820</v>
       </c>
       <c r="E126" s="8">
@@ -37064,7 +37160,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>1840</v>
       </c>
@@ -37074,7 +37170,7 @@
       <c r="C127">
         <v>29</v>
       </c>
-      <c r="D127" s="15">
+      <c r="D127" s="12">
         <v>14821</v>
       </c>
       <c r="E127" s="8">
@@ -37111,7 +37207,7 @@
         <v>29.635000000000002</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>1840</v>
       </c>
@@ -37121,7 +37217,7 @@
       <c r="C128">
         <v>30</v>
       </c>
-      <c r="D128" s="15">
+      <c r="D128" s="12">
         <v>14822</v>
       </c>
       <c r="E128" s="8">
@@ -37158,7 +37254,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1840</v>
       </c>
@@ -37168,7 +37264,7 @@
       <c r="C129">
         <v>31</v>
       </c>
-      <c r="D129" s="15">
+      <c r="D129" s="12">
         <v>14823</v>
       </c>
       <c r="E129" s="8">
@@ -37205,7 +37301,7 @@
         <v>29.617999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>1840</v>
       </c>
@@ -37215,7 +37311,7 @@
       <c r="C130">
         <v>1</v>
       </c>
-      <c r="D130" s="15">
+      <c r="D130" s="12">
         <v>14824</v>
       </c>
       <c r="E130" s="8">
@@ -37252,7 +37348,7 @@
         <v>29.641999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>1840</v>
       </c>
@@ -37262,7 +37358,7 @@
       <c r="C131">
         <v>2</v>
       </c>
-      <c r="D131" s="15">
+      <c r="D131" s="12">
         <v>14825</v>
       </c>
       <c r="E131" s="8">
@@ -37299,7 +37395,7 @@
         <v>29.622</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>1840</v>
       </c>
@@ -37309,7 +37405,7 @@
       <c r="C132">
         <v>3</v>
       </c>
-      <c r="D132" s="15">
+      <c r="D132" s="12">
         <v>14826</v>
       </c>
       <c r="E132" s="8">
@@ -37346,7 +37442,7 @@
         <v>29.577999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>1840</v>
       </c>
@@ -37356,7 +37452,7 @@
       <c r="C133">
         <v>4</v>
       </c>
-      <c r="D133" s="15">
+      <c r="D133" s="12">
         <v>14827</v>
       </c>
       <c r="E133" s="8">
@@ -37393,7 +37489,7 @@
         <v>29.603000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>1840</v>
       </c>
@@ -37403,7 +37499,7 @@
       <c r="C134">
         <v>5</v>
       </c>
-      <c r="D134" s="15">
+      <c r="D134" s="12">
         <v>14828</v>
       </c>
       <c r="E134" s="8">
@@ -37440,7 +37536,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1840</v>
       </c>
@@ -37450,7 +37546,7 @@
       <c r="C135">
         <v>6</v>
       </c>
-      <c r="D135" s="15">
+      <c r="D135" s="12">
         <v>14829</v>
       </c>
       <c r="E135" s="8">
@@ -37487,7 +37583,7 @@
         <v>29.582000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1840</v>
       </c>
@@ -37497,7 +37593,7 @@
       <c r="C136">
         <v>7</v>
       </c>
-      <c r="D136" s="15">
+      <c r="D136" s="12">
         <v>14830</v>
       </c>
       <c r="E136" s="8">
@@ -37534,7 +37630,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1840</v>
       </c>
@@ -37544,7 +37640,7 @@
       <c r="C137">
         <v>8</v>
       </c>
-      <c r="D137" s="15">
+      <c r="D137" s="12">
         <v>14831</v>
       </c>
       <c r="E137" s="8">
@@ -37581,7 +37677,7 @@
         <v>29.638000000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>1840</v>
       </c>
@@ -37591,7 +37687,7 @@
       <c r="C138">
         <v>9</v>
       </c>
-      <c r="D138" s="15">
+      <c r="D138" s="12">
         <v>14832</v>
       </c>
       <c r="E138" s="8">
@@ -37628,7 +37724,7 @@
         <v>29.678000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>1840</v>
       </c>
@@ -37638,7 +37734,7 @@
       <c r="C139">
         <v>10</v>
       </c>
-      <c r="D139" s="15">
+      <c r="D139" s="12">
         <v>14833</v>
       </c>
       <c r="E139" s="8">
@@ -37675,7 +37771,7 @@
         <v>29.657</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>1840</v>
       </c>
@@ -37685,7 +37781,7 @@
       <c r="C140">
         <v>11</v>
       </c>
-      <c r="D140" s="15">
+      <c r="D140" s="12">
         <v>14834</v>
       </c>
       <c r="E140" s="8">
@@ -37722,7 +37818,7 @@
         <v>29.584</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1840</v>
       </c>
@@ -37732,7 +37828,7 @@
       <c r="C141">
         <v>12</v>
       </c>
-      <c r="D141" s="15">
+      <c r="D141" s="12">
         <v>14835</v>
       </c>
       <c r="E141" s="8">
@@ -37772,7 +37868,7 @@
         <v>29.545000000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1840</v>
       </c>
@@ -37782,7 +37878,7 @@
       <c r="C142">
         <v>13</v>
       </c>
-      <c r="D142" s="15">
+      <c r="D142" s="12">
         <v>14836</v>
       </c>
       <c r="E142" s="8">
@@ -37819,7 +37915,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>1840</v>
       </c>
@@ -37829,7 +37925,7 @@
       <c r="C143">
         <v>14</v>
       </c>
-      <c r="D143" s="15">
+      <c r="D143" s="12">
         <v>14837</v>
       </c>
       <c r="E143" s="8">
@@ -37866,7 +37962,7 @@
         <v>29.58</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>1840</v>
       </c>
@@ -37876,7 +37972,7 @@
       <c r="C144">
         <v>15</v>
       </c>
-      <c r="D144" s="15">
+      <c r="D144" s="12">
         <v>14838</v>
       </c>
       <c r="E144" s="8">
@@ -37913,7 +38009,7 @@
         <v>29.582000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>1840</v>
       </c>
@@ -37923,7 +38019,7 @@
       <c r="C145">
         <v>16</v>
       </c>
-      <c r="D145" s="15">
+      <c r="D145" s="12">
         <v>14839</v>
       </c>
       <c r="E145" s="8">
@@ -37960,7 +38056,7 @@
         <v>29.54</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>1840</v>
       </c>
@@ -37970,7 +38066,7 @@
       <c r="C146">
         <v>17</v>
       </c>
-      <c r="D146" s="15">
+      <c r="D146" s="12">
         <v>14840</v>
       </c>
       <c r="E146" s="8">
@@ -38007,7 +38103,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1840</v>
       </c>
@@ -38017,7 +38113,7 @@
       <c r="C147">
         <v>18</v>
       </c>
-      <c r="D147" s="15">
+      <c r="D147" s="12">
         <v>14841</v>
       </c>
       <c r="E147" s="8">
@@ -38057,7 +38153,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>1840</v>
       </c>
@@ -38067,7 +38163,7 @@
       <c r="C148">
         <v>19</v>
       </c>
-      <c r="D148" s="15">
+      <c r="D148" s="12">
         <v>14842</v>
       </c>
       <c r="E148" s="8">
@@ -38104,7 +38200,7 @@
         <v>29.562999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>1840</v>
       </c>
@@ -38114,7 +38210,7 @@
       <c r="C149">
         <v>20</v>
       </c>
-      <c r="D149" s="15">
+      <c r="D149" s="12">
         <v>14843</v>
       </c>
       <c r="E149" s="8">
@@ -38151,7 +38247,7 @@
         <v>29.542000000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1840</v>
       </c>
@@ -38161,7 +38257,7 @@
       <c r="C150">
         <v>21</v>
       </c>
-      <c r="D150" s="15">
+      <c r="D150" s="12">
         <v>14844</v>
       </c>
       <c r="E150" s="8">
@@ -38198,7 +38294,7 @@
         <v>29.56</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1840</v>
       </c>
@@ -38208,7 +38304,7 @@
       <c r="C151">
         <v>22</v>
       </c>
-      <c r="D151" s="15">
+      <c r="D151" s="12">
         <v>14845</v>
       </c>
       <c r="E151" s="8">
@@ -38245,7 +38341,7 @@
         <v>29.565000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>1840</v>
       </c>
@@ -38255,7 +38351,7 @@
       <c r="C152">
         <v>23</v>
       </c>
-      <c r="D152" s="15">
+      <c r="D152" s="12">
         <v>14846</v>
       </c>
       <c r="E152" s="8">
@@ -38292,7 +38388,7 @@
         <v>29.58</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>1840</v>
       </c>
@@ -38302,7 +38398,7 @@
       <c r="C153">
         <v>24</v>
       </c>
-      <c r="D153" s="15">
+      <c r="D153" s="12">
         <v>14847</v>
       </c>
       <c r="E153" s="8">
@@ -38339,7 +38435,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>1840</v>
       </c>
@@ -38349,7 +38445,7 @@
       <c r="C154">
         <v>25</v>
       </c>
-      <c r="D154" s="15">
+      <c r="D154" s="12">
         <v>14848</v>
       </c>
       <c r="E154" s="8">
@@ -38386,7 +38482,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>1840</v>
       </c>
@@ -38396,7 +38492,7 @@
       <c r="C155">
         <v>26</v>
       </c>
-      <c r="D155" s="15">
+      <c r="D155" s="12">
         <v>14849</v>
       </c>
       <c r="E155" s="8">
@@ -38433,7 +38529,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>1840</v>
       </c>
@@ -38443,7 +38539,7 @@
       <c r="C156">
         <v>27</v>
       </c>
-      <c r="D156" s="15">
+      <c r="D156" s="12">
         <v>14850</v>
       </c>
       <c r="E156" s="8">
@@ -38480,7 +38576,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>1840</v>
       </c>
@@ -38490,7 +38586,7 @@
       <c r="C157">
         <v>28</v>
       </c>
-      <c r="D157" s="15">
+      <c r="D157" s="12">
         <v>14851</v>
       </c>
       <c r="E157" s="8">
@@ -38527,7 +38623,7 @@
         <v>29.56</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>1840</v>
       </c>
@@ -38537,7 +38633,7 @@
       <c r="C158">
         <v>29</v>
       </c>
-      <c r="D158" s="15">
+      <c r="D158" s="12">
         <v>14852</v>
       </c>
       <c r="E158" s="8">
@@ -38574,7 +38670,7 @@
         <v>29.61</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>1840</v>
       </c>
@@ -38584,7 +38680,7 @@
       <c r="C159">
         <v>30</v>
       </c>
-      <c r="D159" s="15">
+      <c r="D159" s="12">
         <v>14853</v>
       </c>
       <c r="E159" s="8">
@@ -38621,7 +38717,7 @@
         <v>29.605</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1840</v>
       </c>
@@ -38631,7 +38727,7 @@
       <c r="C160">
         <v>31</v>
       </c>
-      <c r="D160" s="15">
+      <c r="D160" s="12">
         <v>14854</v>
       </c>
       <c r="E160" s="8">
@@ -38668,7 +38764,7 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>1840</v>
       </c>
@@ -38678,7 +38774,7 @@
       <c r="C161">
         <v>1</v>
       </c>
-      <c r="D161" s="15">
+      <c r="D161" s="12">
         <v>14855</v>
       </c>
       <c r="E161" s="8">
@@ -38715,7 +38811,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>1840</v>
       </c>
@@ -38725,7 +38821,7 @@
       <c r="C162">
         <v>2</v>
       </c>
-      <c r="D162" s="15">
+      <c r="D162" s="12">
         <v>14856</v>
       </c>
       <c r="E162" s="8">
@@ -38762,7 +38858,7 @@
         <v>29.57</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>1840</v>
       </c>
@@ -38772,7 +38868,7 @@
       <c r="C163">
         <v>3</v>
       </c>
-      <c r="D163" s="15">
+      <c r="D163" s="12">
         <v>14857</v>
       </c>
       <c r="E163" s="8">
@@ -38809,7 +38905,7 @@
         <v>29.533999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>1840</v>
       </c>
@@ -38819,7 +38915,7 @@
       <c r="C164">
         <v>4</v>
       </c>
-      <c r="D164" s="15">
+      <c r="D164" s="12">
         <v>14858</v>
       </c>
       <c r="E164" s="8">
@@ -38856,7 +38952,7 @@
         <v>29.54</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>1840</v>
       </c>
@@ -38866,7 +38962,7 @@
       <c r="C165">
         <v>5</v>
       </c>
-      <c r="D165" s="15">
+      <c r="D165" s="12">
         <v>14859</v>
       </c>
       <c r="E165" s="8">
@@ -38903,7 +38999,7 @@
         <v>29.562000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>1840</v>
       </c>
@@ -38913,7 +39009,7 @@
       <c r="C166">
         <v>6</v>
       </c>
-      <c r="D166" s="15">
+      <c r="D166" s="12">
         <v>14860</v>
       </c>
       <c r="E166" s="8">
@@ -38950,7 +39046,7 @@
         <v>29.58</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>1840</v>
       </c>
@@ -38960,7 +39056,7 @@
       <c r="C167">
         <v>7</v>
       </c>
-      <c r="D167" s="15">
+      <c r="D167" s="12">
         <v>14861</v>
       </c>
       <c r="E167" s="8">
@@ -38997,7 +39093,7 @@
         <v>29.54</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1840</v>
       </c>
@@ -39007,7 +39103,7 @@
       <c r="C168">
         <v>8</v>
       </c>
-      <c r="D168" s="15">
+      <c r="D168" s="12">
         <v>14862</v>
       </c>
       <c r="E168" s="8">
@@ -39044,7 +39140,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>1840</v>
       </c>
@@ -39054,7 +39150,7 @@
       <c r="C169">
         <v>9</v>
       </c>
-      <c r="D169" s="15">
+      <c r="D169" s="12">
         <v>14863</v>
       </c>
       <c r="E169" s="8">
@@ -39091,7 +39187,7 @@
         <v>29.48</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1840</v>
       </c>
@@ -39101,7 +39197,7 @@
       <c r="C170">
         <v>10</v>
       </c>
-      <c r="D170" s="15">
+      <c r="D170" s="12">
         <v>14864</v>
       </c>
       <c r="E170" s="8">
@@ -39138,7 +39234,7 @@
         <v>29.48</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1840</v>
       </c>
@@ -39148,7 +39244,7 @@
       <c r="C171">
         <v>11</v>
       </c>
-      <c r="D171" s="15">
+      <c r="D171" s="12">
         <v>14865</v>
       </c>
       <c r="E171" s="8">
@@ -39185,7 +39281,7 @@
         <v>29.462</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1840</v>
       </c>
@@ -39195,7 +39291,7 @@
       <c r="C172">
         <v>12</v>
       </c>
-      <c r="D172" s="15">
+      <c r="D172" s="12">
         <v>14866</v>
       </c>
       <c r="E172" s="8">
@@ -39232,7 +39328,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1840</v>
       </c>
@@ -39242,7 +39338,7 @@
       <c r="C173">
         <v>13</v>
       </c>
-      <c r="D173" s="15">
+      <c r="D173" s="12">
         <v>14867</v>
       </c>
       <c r="E173" s="8">
@@ -39279,7 +39375,7 @@
         <v>29.52</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>1840</v>
       </c>
@@ -39289,7 +39385,7 @@
       <c r="C174">
         <v>14</v>
       </c>
-      <c r="D174" s="15">
+      <c r="D174" s="12">
         <v>14868</v>
       </c>
       <c r="E174" s="8">
@@ -39326,7 +39422,7 @@
         <v>29.532</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>1840</v>
       </c>
@@ -39336,7 +39432,7 @@
       <c r="C175">
         <v>15</v>
       </c>
-      <c r="D175" s="15">
+      <c r="D175" s="12">
         <v>14869</v>
       </c>
       <c r="E175" s="8">
@@ -39373,7 +39469,7 @@
         <v>29.544</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>1840</v>
       </c>
@@ -39383,7 +39479,7 @@
       <c r="C176">
         <v>16</v>
       </c>
-      <c r="D176" s="15">
+      <c r="D176" s="12">
         <v>14870</v>
       </c>
       <c r="E176" s="8">
@@ -39420,7 +39516,7 @@
         <v>29.54</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>1840</v>
       </c>
@@ -39430,7 +39526,7 @@
       <c r="C177">
         <v>17</v>
       </c>
-      <c r="D177" s="15">
+      <c r="D177" s="12">
         <v>14871</v>
       </c>
       <c r="E177" s="8">
@@ -39467,7 +39563,7 @@
         <v>29.515000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>1840</v>
       </c>
@@ -39477,7 +39573,7 @@
       <c r="C178">
         <v>18</v>
       </c>
-      <c r="D178" s="15">
+      <c r="D178" s="12">
         <v>14872</v>
       </c>
       <c r="E178" s="8">
@@ -39514,7 +39610,7 @@
         <v>29.52</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1840</v>
       </c>
@@ -39524,7 +39620,7 @@
       <c r="C179">
         <v>19</v>
       </c>
-      <c r="D179" s="15">
+      <c r="D179" s="12">
         <v>14873</v>
       </c>
       <c r="E179" s="8">
@@ -39564,7 +39660,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>1840</v>
       </c>
@@ -39574,7 +39670,7 @@
       <c r="C180">
         <v>20</v>
       </c>
-      <c r="D180" s="15">
+      <c r="D180" s="12">
         <v>14874</v>
       </c>
       <c r="E180" s="8">
@@ -39614,7 +39710,7 @@
         <v>29.53</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>1840</v>
       </c>
@@ -39624,7 +39720,7 @@
       <c r="C181">
         <v>21</v>
       </c>
-      <c r="D181" s="15">
+      <c r="D181" s="12">
         <v>14875</v>
       </c>
       <c r="E181" s="8">
@@ -39661,7 +39757,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>1840</v>
       </c>
@@ -39671,7 +39767,7 @@
       <c r="C182">
         <v>22</v>
       </c>
-      <c r="D182" s="15">
+      <c r="D182" s="12">
         <v>14876</v>
       </c>
       <c r="E182" s="8">
@@ -39708,7 +39804,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1840</v>
       </c>
@@ -39718,7 +39814,7 @@
       <c r="C183">
         <v>23</v>
       </c>
-      <c r="D183" s="15">
+      <c r="D183" s="12">
         <v>14877</v>
       </c>
       <c r="E183" s="8">
@@ -39755,7 +39851,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>1840</v>
       </c>
@@ -39765,7 +39861,7 @@
       <c r="C184">
         <v>24</v>
       </c>
-      <c r="D184" s="15">
+      <c r="D184" s="12">
         <v>14878</v>
       </c>
       <c r="E184" s="8">
@@ -39802,7 +39898,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>1840</v>
       </c>
@@ -39812,7 +39908,7 @@
       <c r="C185">
         <v>25</v>
       </c>
-      <c r="D185" s="15">
+      <c r="D185" s="12">
         <v>14879</v>
       </c>
       <c r="E185" s="8">
@@ -39852,7 +39948,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>1840</v>
       </c>
@@ -39862,7 +39958,7 @@
       <c r="C186">
         <v>26</v>
       </c>
-      <c r="D186" s="15">
+      <c r="D186" s="12">
         <v>14880</v>
       </c>
       <c r="E186" s="8">
@@ -39899,7 +39995,7 @@
         <v>29.51</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>1840</v>
       </c>
@@ -39909,7 +40005,7 @@
       <c r="C187">
         <v>27</v>
       </c>
-      <c r="D187" s="15">
+      <c r="D187" s="12">
         <v>14881</v>
       </c>
       <c r="E187" s="8">
@@ -39949,7 +40045,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>1840</v>
       </c>
@@ -39959,7 +40055,7 @@
       <c r="C188">
         <v>28</v>
       </c>
-      <c r="D188" s="15">
+      <c r="D188" s="12">
         <v>14882</v>
       </c>
       <c r="E188" s="8">
@@ -39996,7 +40092,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>1840</v>
       </c>
@@ -40006,7 +40102,7 @@
       <c r="C189">
         <v>29</v>
       </c>
-      <c r="D189" s="15">
+      <c r="D189" s="12">
         <v>14883</v>
       </c>
       <c r="E189" s="8">
@@ -40043,7 +40139,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>1840</v>
       </c>
@@ -40053,7 +40149,7 @@
       <c r="C190">
         <v>30</v>
       </c>
-      <c r="D190" s="15">
+      <c r="D190" s="12">
         <v>14884</v>
       </c>
       <c r="E190" s="8">
@@ -40090,7 +40186,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>1840</v>
       </c>
@@ -40100,7 +40196,7 @@
       <c r="C191">
         <v>1</v>
       </c>
-      <c r="D191" s="15">
+      <c r="D191" s="12">
         <v>14885</v>
       </c>
       <c r="E191" s="8">
@@ -40137,7 +40233,7 @@
         <v>29.49</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1840</v>
       </c>
@@ -40147,7 +40243,7 @@
       <c r="C192">
         <v>2</v>
       </c>
-      <c r="D192" s="15">
+      <c r="D192" s="12">
         <v>14886</v>
       </c>
       <c r="E192" s="8">
@@ -40184,7 +40280,7 @@
         <v>29.442</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>1840</v>
       </c>
@@ -40194,7 +40290,7 @@
       <c r="C193">
         <v>3</v>
       </c>
-      <c r="D193" s="15">
+      <c r="D193" s="12">
         <v>14887</v>
       </c>
       <c r="E193" s="8">
@@ -40231,7 +40327,7 @@
         <v>29.44</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>1840</v>
       </c>
@@ -40241,7 +40337,7 @@
       <c r="C194">
         <v>4</v>
       </c>
-      <c r="D194" s="15">
+      <c r="D194" s="12">
         <v>14888</v>
       </c>
       <c r="E194" s="8">
@@ -40278,7 +40374,7 @@
         <v>29.42</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>1840</v>
       </c>
@@ -40288,7 +40384,7 @@
       <c r="C195">
         <v>5</v>
       </c>
-      <c r="D195" s="15">
+      <c r="D195" s="12">
         <v>14889</v>
       </c>
       <c r="E195" s="8">
@@ -40325,7 +40421,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>1840</v>
       </c>
@@ -40335,7 +40431,7 @@
       <c r="C196">
         <v>6</v>
       </c>
-      <c r="D196" s="15">
+      <c r="D196" s="12">
         <v>14890</v>
       </c>
       <c r="E196" s="8">
@@ -40372,7 +40468,7 @@
         <v>29.434999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>1840</v>
       </c>
@@ -40382,7 +40478,7 @@
       <c r="C197">
         <v>7</v>
       </c>
-      <c r="D197" s="15">
+      <c r="D197" s="12">
         <v>14891</v>
       </c>
       <c r="E197" s="8">
@@ -40419,7 +40515,7 @@
         <v>29.44</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>1840</v>
       </c>
@@ -40429,7 +40525,7 @@
       <c r="C198">
         <v>8</v>
       </c>
-      <c r="D198" s="15">
+      <c r="D198" s="12">
         <v>14892</v>
       </c>
       <c r="E198" s="8">
@@ -40466,7 +40562,7 @@
         <v>29.414999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>1840</v>
       </c>
@@ -40476,7 +40572,7 @@
       <c r="C199">
         <v>9</v>
       </c>
-      <c r="D199" s="15">
+      <c r="D199" s="12">
         <v>14893</v>
       </c>
       <c r="E199" s="8">
@@ -40516,7 +40612,7 @@
         <v>29.411999999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>1840</v>
       </c>
@@ -40526,7 +40622,7 @@
       <c r="C200">
         <v>10</v>
       </c>
-      <c r="D200" s="15">
+      <c r="D200" s="12">
         <v>14894</v>
       </c>
       <c r="E200" s="8">
@@ -40566,7 +40662,7 @@
         <v>29.417999999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>1840</v>
       </c>
@@ -40576,7 +40672,7 @@
       <c r="C201">
         <v>11</v>
       </c>
-      <c r="D201" s="15">
+      <c r="D201" s="12">
         <v>14895</v>
       </c>
       <c r="E201" s="8">
@@ -40613,7 +40709,7 @@
         <v>29.465</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>1840</v>
       </c>
@@ -40623,7 +40719,7 @@
       <c r="C202">
         <v>12</v>
       </c>
-      <c r="D202" s="15">
+      <c r="D202" s="12">
         <v>14896</v>
       </c>
       <c r="E202" s="8">
@@ -40663,7 +40759,7 @@
         <v>29.43</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>1840</v>
       </c>
@@ -40673,7 +40769,7 @@
       <c r="C203">
         <v>13</v>
       </c>
-      <c r="D203" s="15">
+      <c r="D203" s="12">
         <v>14897</v>
       </c>
       <c r="E203" s="8">
@@ -40710,7 +40806,7 @@
         <v>29.395</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>1840</v>
       </c>
@@ -40720,7 +40816,7 @@
       <c r="C204">
         <v>14</v>
       </c>
-      <c r="D204" s="15">
+      <c r="D204" s="12">
         <v>14898</v>
       </c>
       <c r="E204" s="8">
@@ -40757,7 +40853,7 @@
         <v>29.43</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>1840</v>
       </c>
@@ -40767,7 +40863,7 @@
       <c r="C205">
         <v>15</v>
       </c>
-      <c r="D205" s="15">
+      <c r="D205" s="12">
         <v>14899</v>
       </c>
       <c r="E205" s="8">
@@ -40804,7 +40900,7 @@
         <v>29.425000000000001</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>1840</v>
       </c>
@@ -40814,7 +40910,7 @@
       <c r="C206">
         <v>16</v>
       </c>
-      <c r="D206" s="15">
+      <c r="D206" s="12">
         <v>14900</v>
       </c>
       <c r="E206" s="8">
@@ -40854,7 +40950,7 @@
         <v>29.445</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>1840</v>
       </c>
@@ -40864,7 +40960,7 @@
       <c r="C207">
         <v>17</v>
       </c>
-      <c r="D207" s="15">
+      <c r="D207" s="12">
         <v>14901</v>
       </c>
       <c r="E207" s="8">
@@ -40901,7 +40997,7 @@
         <v>29.41</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>1840</v>
       </c>
@@ -40911,7 +41007,7 @@
       <c r="C208">
         <v>18</v>
       </c>
-      <c r="D208" s="15">
+      <c r="D208" s="12">
         <v>14902</v>
       </c>
       <c r="E208" s="8">
@@ -40948,7 +41044,7 @@
         <v>29.395</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>1840</v>
       </c>
@@ -40958,7 +41054,7 @@
       <c r="C209">
         <v>19</v>
       </c>
-      <c r="D209" s="15">
+      <c r="D209" s="12">
         <v>14903</v>
       </c>
       <c r="E209" s="8">
@@ -40995,7 +41091,7 @@
         <v>29.39</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>1840</v>
       </c>
@@ -41005,7 +41101,7 @@
       <c r="C210">
         <v>20</v>
       </c>
-      <c r="D210" s="15">
+      <c r="D210" s="12">
         <v>14904</v>
       </c>
       <c r="E210" s="8">
@@ -41042,7 +41138,7 @@
         <v>29.364999999999998</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>1840</v>
       </c>
@@ -41052,7 +41148,7 @@
       <c r="C211">
         <v>21</v>
       </c>
-      <c r="D211" s="15">
+      <c r="D211" s="12">
         <v>14905</v>
       </c>
       <c r="E211" s="8">
@@ -41089,7 +41185,7 @@
         <v>29.36</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>1840</v>
       </c>
@@ -41099,7 +41195,7 @@
       <c r="C212">
         <v>22</v>
       </c>
-      <c r="D212" s="15">
+      <c r="D212" s="12">
         <v>14906</v>
       </c>
       <c r="E212" s="8">
@@ -41136,7 +41232,7 @@
         <v>29.358000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>1840</v>
       </c>
@@ -41146,7 +41242,7 @@
       <c r="C213">
         <v>23</v>
       </c>
-      <c r="D213" s="15">
+      <c r="D213" s="12">
         <v>14907</v>
       </c>
       <c r="E213" s="8">
@@ -41186,7 +41282,7 @@
         <v>29.35</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>1840</v>
       </c>
@@ -41196,7 +41292,7 @@
       <c r="C214">
         <v>24</v>
       </c>
-      <c r="D214" s="15">
+      <c r="D214" s="12">
         <v>14908</v>
       </c>
       <c r="E214" s="8">
@@ -41236,7 +41332,7 @@
         <v>29.385000000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>1840</v>
       </c>
@@ -41246,7 +41342,7 @@
       <c r="C215">
         <v>25</v>
       </c>
-      <c r="D215" s="15">
+      <c r="D215" s="12">
         <v>14909</v>
       </c>
       <c r="E215" s="8">
@@ -41283,7 +41379,7 @@
         <v>29.382000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>1840</v>
       </c>
@@ -41293,7 +41389,7 @@
       <c r="C216">
         <v>26</v>
       </c>
-      <c r="D216" s="15">
+      <c r="D216" s="12">
         <v>14910</v>
       </c>
       <c r="E216" s="8">
@@ -41330,7 +41426,7 @@
         <v>29.36</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>1840</v>
       </c>
@@ -41340,7 +41436,7 @@
       <c r="C217">
         <v>27</v>
       </c>
-      <c r="D217" s="15">
+      <c r="D217" s="12">
         <v>14911</v>
       </c>
       <c r="E217" s="8">
@@ -41377,7 +41473,7 @@
         <v>29.34</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>1840</v>
       </c>
@@ -41387,7 +41483,7 @@
       <c r="C218">
         <v>28</v>
       </c>
-      <c r="D218" s="15">
+      <c r="D218" s="12">
         <v>14912</v>
       </c>
       <c r="E218" s="8">
@@ -41424,7 +41520,7 @@
         <v>29.31</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>1840</v>
       </c>
@@ -41434,7 +41530,7 @@
       <c r="C219">
         <v>29</v>
       </c>
-      <c r="D219" s="15">
+      <c r="D219" s="12">
         <v>14913</v>
       </c>
       <c r="E219" s="8">
@@ -41471,7 +41567,7 @@
         <v>29.315000000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>1840</v>
       </c>
@@ -41481,7 +41577,7 @@
       <c r="C220">
         <v>30</v>
       </c>
-      <c r="D220" s="15">
+      <c r="D220" s="12">
         <v>14914</v>
       </c>
       <c r="E220" s="8">
@@ -41521,7 +41617,7 @@
         <v>29.318000000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>1840</v>
       </c>
@@ -41531,7 +41627,7 @@
       <c r="C221">
         <v>31</v>
       </c>
-      <c r="D221" s="15">
+      <c r="D221" s="12">
         <v>14915</v>
       </c>
       <c r="E221" s="8">
@@ -41571,7 +41667,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>1840</v>
       </c>
@@ -41581,7 +41677,7 @@
       <c r="C222">
         <v>1</v>
       </c>
-      <c r="D222" s="15">
+      <c r="D222" s="12">
         <v>14916</v>
       </c>
       <c r="E222" s="8">
@@ -41618,7 +41714,7 @@
         <v>29.31</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>1840</v>
       </c>
@@ -41628,7 +41724,7 @@
       <c r="C223">
         <v>2</v>
       </c>
-      <c r="D223" s="15">
+      <c r="D223" s="12">
         <v>14917</v>
       </c>
       <c r="E223" s="8">
@@ -41665,7 +41761,7 @@
         <v>29.318000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>1840</v>
       </c>
@@ -41675,7 +41771,7 @@
       <c r="C224">
         <v>3</v>
       </c>
-      <c r="D224" s="15">
+      <c r="D224" s="12">
         <v>14918</v>
       </c>
       <c r="E224" s="8">
@@ -41712,7 +41808,7 @@
         <v>29.344999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>1840</v>
       </c>
@@ -41722,7 +41818,7 @@
       <c r="C225">
         <v>4</v>
       </c>
-      <c r="D225" s="15">
+      <c r="D225" s="12">
         <v>14919</v>
       </c>
       <c r="E225" s="8">
@@ -41759,7 +41855,7 @@
         <v>29.347000000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>1840</v>
       </c>
@@ -41769,7 +41865,7 @@
       <c r="C226">
         <v>5</v>
       </c>
-      <c r="D226" s="15">
+      <c r="D226" s="12">
         <v>14920</v>
       </c>
       <c r="E226" s="8">
@@ -41806,7 +41902,7 @@
         <v>29.347999999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>1840</v>
       </c>
@@ -41816,7 +41912,7 @@
       <c r="C227">
         <v>6</v>
       </c>
-      <c r="D227" s="15">
+      <c r="D227" s="12">
         <v>14921</v>
       </c>
       <c r="E227" s="8">
@@ -41850,7 +41946,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>1840</v>
       </c>
@@ -41860,7 +41956,7 @@
       <c r="C228">
         <v>7</v>
       </c>
-      <c r="D228" s="15">
+      <c r="D228" s="12">
         <v>14922</v>
       </c>
       <c r="E228" s="8">
@@ -41894,7 +41990,7 @@
         <v>29.34</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>1840</v>
       </c>
@@ -41904,7 +42000,7 @@
       <c r="C229">
         <v>8</v>
       </c>
-      <c r="D229" s="15">
+      <c r="D229" s="12">
         <v>14923</v>
       </c>
       <c r="E229" s="8">
@@ -41938,7 +42034,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>1840</v>
       </c>
@@ -41948,7 +42044,7 @@
       <c r="C230">
         <v>9</v>
       </c>
-      <c r="D230" s="15">
+      <c r="D230" s="12">
         <v>14924</v>
       </c>
       <c r="E230" s="8">
@@ -41982,7 +42078,7 @@
         <v>29.324999999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>1840</v>
       </c>
@@ -41992,7 +42088,7 @@
       <c r="C231">
         <v>10</v>
       </c>
-      <c r="D231" s="15">
+      <c r="D231" s="12">
         <v>14925</v>
       </c>
       <c r="E231" s="8">
@@ -42032,7 +42128,7 @@
         <v>29.305</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>1840</v>
       </c>
@@ -42042,7 +42138,7 @@
       <c r="C232">
         <v>11</v>
       </c>
-      <c r="D232" s="15">
+      <c r="D232" s="12">
         <v>14926</v>
       </c>
       <c r="E232" s="8">
@@ -42082,7 +42178,7 @@
         <v>29.34</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>1840</v>
       </c>
@@ -42092,7 +42188,7 @@
       <c r="C233">
         <v>12</v>
       </c>
-      <c r="D233" s="15">
+      <c r="D233" s="12">
         <v>14927</v>
       </c>
       <c r="E233" s="8">
@@ -42129,7 +42225,7 @@
         <v>29.34</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>1840</v>
       </c>
@@ -42139,7 +42235,7 @@
       <c r="C234">
         <v>13</v>
       </c>
-      <c r="D234" s="15">
+      <c r="D234" s="12">
         <v>14928</v>
       </c>
       <c r="E234" s="8">
@@ -42176,7 +42272,7 @@
         <v>29.35</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>1840</v>
       </c>
@@ -42186,7 +42282,7 @@
       <c r="C235">
         <v>14</v>
       </c>
-      <c r="D235" s="15">
+      <c r="D235" s="12">
         <v>14929</v>
       </c>
       <c r="E235" s="8">
@@ -42223,7 +42319,7 @@
         <v>29.344999999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>1840</v>
       </c>
@@ -42233,7 +42329,7 @@
       <c r="C236">
         <v>15</v>
       </c>
-      <c r="D236" s="15">
+      <c r="D236" s="12">
         <v>14930</v>
       </c>
       <c r="E236" s="8">
@@ -42267,7 +42363,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>1840</v>
       </c>
@@ -42277,7 +42373,7 @@
       <c r="C237">
         <v>16</v>
       </c>
-      <c r="D237" s="15">
+      <c r="D237" s="12">
         <v>14931</v>
       </c>
       <c r="E237" s="8">
@@ -42311,7 +42407,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>1840</v>
       </c>
@@ -42321,7 +42417,7 @@
       <c r="C238">
         <v>17</v>
       </c>
-      <c r="D238" s="15">
+      <c r="D238" s="12">
         <v>14932</v>
       </c>
       <c r="E238" s="8">
@@ -42358,7 +42454,7 @@
         <v>29.318999999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>1840</v>
       </c>
@@ -42368,7 +42464,7 @@
       <c r="C239">
         <v>18</v>
       </c>
-      <c r="D239" s="15">
+      <c r="D239" s="12">
         <v>14933</v>
       </c>
       <c r="E239" s="8">
@@ -42405,7 +42501,7 @@
         <v>29.317</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>1840</v>
       </c>
@@ -42415,7 +42511,7 @@
       <c r="C240">
         <v>19</v>
       </c>
-      <c r="D240" s="15">
+      <c r="D240" s="12">
         <v>14934</v>
       </c>
       <c r="E240" s="8">
@@ -42452,7 +42548,7 @@
         <v>29.309000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>1840</v>
       </c>
@@ -42462,7 +42558,7 @@
       <c r="C241">
         <v>20</v>
       </c>
-      <c r="D241" s="15">
+      <c r="D241" s="12">
         <v>14935</v>
       </c>
       <c r="E241" s="8">
@@ -42502,7 +42598,7 @@
         <v>29.306999999999999</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>1840</v>
       </c>
@@ -42512,7 +42608,7 @@
       <c r="C242">
         <v>21</v>
       </c>
-      <c r="D242" s="15">
+      <c r="D242" s="12">
         <v>14936</v>
       </c>
       <c r="E242" s="8">
@@ -42549,7 +42645,7 @@
         <v>29.335000000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>1840</v>
       </c>
@@ -42559,7 +42655,7 @@
       <c r="C243">
         <v>22</v>
       </c>
-      <c r="D243" s="15">
+      <c r="D243" s="12">
         <v>14937</v>
       </c>
       <c r="E243" s="8">
@@ -42596,7 +42692,7 @@
         <v>29.341999999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>1840</v>
       </c>
@@ -42606,7 +42702,7 @@
       <c r="C244">
         <v>23</v>
       </c>
-      <c r="D244" s="15">
+      <c r="D244" s="12">
         <v>14938</v>
       </c>
       <c r="E244" s="8">
@@ -42643,7 +42739,7 @@
         <v>29.358000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>1840</v>
       </c>
@@ -42653,7 +42749,7 @@
       <c r="C245">
         <v>24</v>
       </c>
-      <c r="D245" s="15">
+      <c r="D245" s="12">
         <v>14939</v>
       </c>
       <c r="E245" s="8">
@@ -42693,7 +42789,7 @@
         <v>29.312000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>1840</v>
       </c>
@@ -42703,7 +42799,7 @@
       <c r="C246">
         <v>25</v>
       </c>
-      <c r="D246" s="15">
+      <c r="D246" s="12">
         <v>14940</v>
       </c>
       <c r="E246" s="8">
@@ -42743,7 +42839,7 @@
         <v>29.323</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>1840</v>
       </c>
@@ -42753,7 +42849,7 @@
       <c r="C247">
         <v>26</v>
       </c>
-      <c r="D247" s="15">
+      <c r="D247" s="12">
         <v>14941</v>
       </c>
       <c r="E247" s="8">
@@ -42790,7 +42886,7 @@
         <v>29.341000000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>1840</v>
       </c>
@@ -42800,7 +42896,7 @@
       <c r="C248">
         <v>27</v>
       </c>
-      <c r="D248" s="15">
+      <c r="D248" s="12">
         <v>14942</v>
       </c>
       <c r="E248" s="8">
@@ -42840,7 +42936,7 @@
         <v>29.323</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>1840</v>
       </c>
@@ -42850,7 +42946,7 @@
       <c r="C249">
         <v>28</v>
       </c>
-      <c r="D249" s="15">
+      <c r="D249" s="12">
         <v>14943</v>
       </c>
       <c r="E249" s="8">
@@ -42890,7 +42986,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>1840</v>
       </c>
@@ -42900,7 +42996,7 @@
       <c r="C250">
         <v>29</v>
       </c>
-      <c r="D250" s="15">
+      <c r="D250" s="12">
         <v>14944</v>
       </c>
       <c r="E250" s="8">
@@ -42937,7 +43033,7 @@
         <v>29.356000000000002</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>1840</v>
       </c>
@@ -42947,7 +43043,7 @@
       <c r="C251">
         <v>30</v>
       </c>
-      <c r="D251" s="15">
+      <c r="D251" s="12">
         <v>14945</v>
       </c>
       <c r="E251" s="8">
@@ -42984,7 +43080,7 @@
         <v>29.425000000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>1840</v>
       </c>
@@ -42994,7 +43090,7 @@
       <c r="C252">
         <v>1</v>
       </c>
-      <c r="D252" s="15">
+      <c r="D252" s="12">
         <v>14946</v>
       </c>
       <c r="E252" s="8">
@@ -43034,7 +43130,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>1840</v>
       </c>
@@ -43044,7 +43140,7 @@
       <c r="C253">
         <v>2</v>
       </c>
-      <c r="D253" s="15">
+      <c r="D253" s="12">
         <v>14947</v>
       </c>
       <c r="E253" s="8">
@@ -43081,7 +43177,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>1840</v>
       </c>
@@ -43091,7 +43187,7 @@
       <c r="C254">
         <v>3</v>
       </c>
-      <c r="D254" s="15">
+      <c r="D254" s="12">
         <v>14948</v>
       </c>
       <c r="E254" s="8">
@@ -43128,7 +43224,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>1840</v>
       </c>
@@ -43138,7 +43234,7 @@
       <c r="C255">
         <v>4</v>
       </c>
-      <c r="D255" s="15">
+      <c r="D255" s="12">
         <v>14949</v>
       </c>
       <c r="E255" s="8">
@@ -43175,7 +43271,7 @@
         <v>29.285</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>1840</v>
       </c>
@@ -43185,7 +43281,7 @@
       <c r="C256">
         <v>5</v>
       </c>
-      <c r="D256" s="15">
+      <c r="D256" s="12">
         <v>14950</v>
       </c>
       <c r="E256" s="8">
@@ -43222,7 +43318,7 @@
         <v>29.274000000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>1840</v>
       </c>
@@ -43232,7 +43328,7 @@
       <c r="C257">
         <v>6</v>
       </c>
-      <c r="D257" s="15">
+      <c r="D257" s="12">
         <v>14951</v>
       </c>
       <c r="E257" s="8">
@@ -43269,7 +43365,7 @@
         <v>29.28</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>1840</v>
       </c>
@@ -43279,7 +43375,7 @@
       <c r="C258">
         <v>7</v>
       </c>
-      <c r="D258" s="15">
+      <c r="D258" s="12">
         <v>14952</v>
       </c>
       <c r="E258" s="8">
@@ -43316,7 +43412,7 @@
         <v>29.280999999999999</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>1840</v>
       </c>
@@ -43326,7 +43422,7 @@
       <c r="C259">
         <v>8</v>
       </c>
-      <c r="D259" s="15">
+      <c r="D259" s="12">
         <v>14953</v>
       </c>
       <c r="E259" s="8">
@@ -43363,7 +43459,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>1840</v>
       </c>
@@ -43373,7 +43469,7 @@
       <c r="C260">
         <v>9</v>
       </c>
-      <c r="D260" s="15">
+      <c r="D260" s="12">
         <v>14954</v>
       </c>
       <c r="E260" s="8">
@@ -43410,7 +43506,7 @@
         <v>29.324999999999999</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>1840</v>
       </c>
@@ -43420,7 +43516,7 @@
       <c r="C261">
         <v>10</v>
       </c>
-      <c r="D261" s="15">
+      <c r="D261" s="12">
         <v>14955</v>
       </c>
       <c r="E261" s="8">
@@ -43457,7 +43553,7 @@
         <v>29.334</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>1840</v>
       </c>
@@ -43467,7 +43563,7 @@
       <c r="C262">
         <v>11</v>
       </c>
-      <c r="D262" s="15">
+      <c r="D262" s="12">
         <v>14956</v>
       </c>
       <c r="E262" s="8">
@@ -43507,7 +43603,7 @@
         <v>29.318000000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>1840</v>
       </c>
@@ -43517,7 +43613,7 @@
       <c r="C263">
         <v>12</v>
       </c>
-      <c r="D263" s="15">
+      <c r="D263" s="12">
         <v>14957</v>
       </c>
       <c r="E263" s="8">
@@ -43554,7 +43650,7 @@
         <v>29.295000000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>1840</v>
       </c>
@@ -43564,7 +43660,7 @@
       <c r="C264">
         <v>13</v>
       </c>
-      <c r="D264" s="15">
+      <c r="D264" s="12">
         <v>14958</v>
       </c>
       <c r="E264" s="8">
@@ -43601,7 +43697,7 @@
         <v>29.28</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>1840</v>
       </c>
@@ -43611,7 +43707,7 @@
       <c r="C265">
         <v>14</v>
       </c>
-      <c r="D265" s="15">
+      <c r="D265" s="12">
         <v>14959</v>
       </c>
       <c r="E265" s="8">
@@ -43648,7 +43744,7 @@
         <v>29.280999999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>1840</v>
       </c>
@@ -43658,7 +43754,7 @@
       <c r="C266">
         <v>15</v>
       </c>
-      <c r="D266" s="15">
+      <c r="D266" s="12">
         <v>14960</v>
       </c>
       <c r="E266" s="8">
@@ -43695,7 +43791,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>1840</v>
       </c>
@@ -43705,7 +43801,7 @@
       <c r="C267">
         <v>16</v>
       </c>
-      <c r="D267" s="15">
+      <c r="D267" s="12">
         <v>14961</v>
       </c>
       <c r="E267" s="8">
@@ -43742,7 +43838,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>1840</v>
       </c>
@@ -43752,7 +43848,7 @@
       <c r="C268">
         <v>17</v>
       </c>
-      <c r="D268" s="15">
+      <c r="D268" s="12">
         <v>14962</v>
       </c>
       <c r="E268" s="8">
@@ -43789,7 +43885,7 @@
         <v>29.332000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>1840</v>
       </c>
@@ -43799,7 +43895,7 @@
       <c r="C269">
         <v>18</v>
       </c>
-      <c r="D269" s="15">
+      <c r="D269" s="12">
         <v>14963</v>
       </c>
       <c r="E269" s="8">
@@ -43836,7 +43932,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>1840</v>
       </c>
@@ -43846,7 +43942,7 @@
       <c r="C270">
         <v>19</v>
       </c>
-      <c r="D270" s="15">
+      <c r="D270" s="12">
         <v>14964</v>
       </c>
       <c r="E270" s="8">
@@ -43883,7 +43979,7 @@
         <v>29.28</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>1840</v>
       </c>
@@ -43893,7 +43989,7 @@
       <c r="C271">
         <v>20</v>
       </c>
-      <c r="D271" s="15">
+      <c r="D271" s="12">
         <v>14965</v>
       </c>
       <c r="E271" s="8">
@@ -43930,7 +44026,7 @@
         <v>29.274999999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>1840</v>
       </c>
@@ -43940,7 +44036,7 @@
       <c r="C272">
         <v>21</v>
       </c>
-      <c r="D272" s="15">
+      <c r="D272" s="12">
         <v>14966</v>
       </c>
       <c r="E272" s="8">
@@ -43980,7 +44076,7 @@
         <v>29.324999999999999</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>1840</v>
       </c>
@@ -43990,7 +44086,7 @@
       <c r="C273">
         <v>22</v>
       </c>
-      <c r="D273" s="15">
+      <c r="D273" s="12">
         <v>14967</v>
       </c>
       <c r="E273" s="8">
@@ -44027,7 +44123,7 @@
         <v>29.324999999999999</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>1840</v>
       </c>
@@ -44037,7 +44133,7 @@
       <c r="C274">
         <v>23</v>
       </c>
-      <c r="D274" s="15">
+      <c r="D274" s="12">
         <v>14968</v>
       </c>
       <c r="E274" s="8">
@@ -44074,7 +44170,7 @@
         <v>29.300999999999998</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>1840</v>
       </c>
@@ -44084,7 +44180,7 @@
       <c r="C275">
         <v>24</v>
       </c>
-      <c r="D275" s="15">
+      <c r="D275" s="12">
         <v>14969</v>
       </c>
       <c r="E275" s="8">
@@ -44121,7 +44217,7 @@
         <v>29.28</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>1840</v>
       </c>
@@ -44131,7 +44227,7 @@
       <c r="C276">
         <v>25</v>
       </c>
-      <c r="D276" s="15">
+      <c r="D276" s="12">
         <v>14970</v>
       </c>
       <c r="E276" s="8">
@@ -44168,7 +44264,7 @@
         <v>29.27</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>1840</v>
       </c>
@@ -44178,7 +44274,7 @@
       <c r="C277">
         <v>26</v>
       </c>
-      <c r="D277" s="15">
+      <c r="D277" s="12">
         <v>14971</v>
       </c>
       <c r="E277" s="8">
@@ -44215,7 +44311,7 @@
         <v>29.34</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>1840</v>
       </c>
@@ -44225,7 +44321,7 @@
       <c r="C278">
         <v>27</v>
       </c>
-      <c r="D278" s="15">
+      <c r="D278" s="12">
         <v>14972</v>
       </c>
       <c r="E278" s="8">
@@ -44265,7 +44361,7 @@
         <v>29.341999999999999</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>1840</v>
       </c>
@@ -44275,7 +44371,7 @@
       <c r="C279">
         <v>28</v>
       </c>
-      <c r="D279" s="15">
+      <c r="D279" s="12">
         <v>14973</v>
       </c>
       <c r="E279" s="8">
@@ -44312,7 +44408,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>1840</v>
       </c>
@@ -44322,7 +44418,7 @@
       <c r="C280">
         <v>29</v>
       </c>
-      <c r="D280" s="15">
+      <c r="D280" s="12">
         <v>14974</v>
       </c>
       <c r="E280" s="8">
@@ -44362,7 +44458,7 @@
         <v>29.29</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>1840</v>
       </c>
@@ -44372,7 +44468,7 @@
       <c r="C281">
         <v>30</v>
       </c>
-      <c r="D281" s="15">
+      <c r="D281" s="12">
         <v>14975</v>
       </c>
       <c r="E281" s="8">
@@ -44409,7 +44505,7 @@
         <v>29.265000000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>1840</v>
       </c>
@@ -44419,7 +44515,7 @@
       <c r="C282">
         <v>31</v>
       </c>
-      <c r="D282" s="15">
+      <c r="D282" s="12">
         <v>14976</v>
       </c>
       <c r="E282" s="8">
@@ -44456,7 +44552,7 @@
         <v>29.23</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>1841</v>
       </c>
@@ -44466,7 +44562,7 @@
       <c r="C283">
         <v>1</v>
       </c>
-      <c r="D283" s="15">
+      <c r="D283" s="12">
         <v>14977</v>
       </c>
       <c r="E283" s="8">
@@ -44503,7 +44599,7 @@
         <v>29.257999999999999</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>1841</v>
       </c>
@@ -44513,7 +44609,7 @@
       <c r="C284">
         <v>2</v>
       </c>
-      <c r="D284" s="15">
+      <c r="D284" s="12">
         <v>14978</v>
       </c>
       <c r="E284" s="8">
@@ -44550,7 +44646,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>1841</v>
       </c>
@@ -44560,7 +44656,7 @@
       <c r="C285">
         <v>3</v>
       </c>
-      <c r="D285" s="15">
+      <c r="D285" s="12">
         <v>14979</v>
       </c>
       <c r="E285" s="8">
@@ -44597,7 +44693,7 @@
         <v>29.256</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>1841</v>
       </c>
@@ -44607,7 +44703,7 @@
       <c r="C286">
         <v>4</v>
       </c>
-      <c r="D286" s="15">
+      <c r="D286" s="12">
         <v>14980</v>
       </c>
       <c r="E286" s="8">
@@ -44644,7 +44740,7 @@
         <v>29.273</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>1841</v>
       </c>
@@ -44654,7 +44750,7 @@
       <c r="C287">
         <v>5</v>
       </c>
-      <c r="D287" s="15">
+      <c r="D287" s="12">
         <v>14981</v>
       </c>
       <c r="E287" s="8">
@@ -44691,7 +44787,7 @@
         <v>29.315000000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>1841</v>
       </c>
@@ -44701,7 +44797,7 @@
       <c r="C288">
         <v>6</v>
       </c>
-      <c r="D288" s="15">
+      <c r="D288" s="12">
         <v>14982</v>
       </c>
       <c r="E288" s="8">
@@ -44741,7 +44837,7 @@
         <v>29.28</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>1841</v>
       </c>
@@ -44751,7 +44847,7 @@
       <c r="C289">
         <v>7</v>
       </c>
-      <c r="D289" s="15">
+      <c r="D289" s="12">
         <v>14983</v>
       </c>
       <c r="E289" s="8">
@@ -44788,7 +44884,7 @@
         <v>29.321999999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>1841</v>
       </c>
@@ -44798,7 +44894,7 @@
       <c r="C290">
         <v>8</v>
       </c>
-      <c r="D290" s="15">
+      <c r="D290" s="12">
         <v>14984</v>
       </c>
       <c r="E290" s="8">
@@ -44835,7 +44931,7 @@
         <v>29.34</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>1841</v>
       </c>
@@ -44845,7 +44941,7 @@
       <c r="C291">
         <v>9</v>
       </c>
-      <c r="D291" s="15">
+      <c r="D291" s="12">
         <v>14985</v>
       </c>
       <c r="E291" s="8">
@@ -44882,7 +44978,7 @@
         <v>29.31</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>1841</v>
       </c>
@@ -44892,7 +44988,7 @@
       <c r="C292">
         <v>10</v>
       </c>
-      <c r="D292" s="15">
+      <c r="D292" s="12">
         <v>14986</v>
       </c>
       <c r="E292" s="8">
@@ -44929,7 +45025,7 @@
         <v>29.295000000000002</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>1841</v>
       </c>
@@ -44939,7 +45035,7 @@
       <c r="C293">
         <v>11</v>
       </c>
-      <c r="D293" s="15">
+      <c r="D293" s="12">
         <v>14987</v>
       </c>
       <c r="E293" s="8">
@@ -44976,7 +45072,7 @@
         <v>29.236000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>1841</v>
       </c>
@@ -44986,7 +45082,7 @@
       <c r="C294">
         <v>12</v>
       </c>
-      <c r="D294" s="15">
+      <c r="D294" s="12">
         <v>14988</v>
       </c>
       <c r="E294" s="8">
@@ -45023,7 +45119,7 @@
         <v>29.23</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>1841</v>
       </c>
@@ -45033,7 +45129,7 @@
       <c r="C295">
         <v>13</v>
       </c>
-      <c r="D295" s="15">
+      <c r="D295" s="12">
         <v>14989</v>
       </c>
       <c r="E295" s="8">
@@ -45073,7 +45169,7 @@
         <v>29.315000000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>1841</v>
       </c>
@@ -45083,7 +45179,7 @@
       <c r="C296">
         <v>14</v>
       </c>
-      <c r="D296" s="15">
+      <c r="D296" s="12">
         <v>14990</v>
       </c>
       <c r="E296" s="8">
@@ -45120,7 +45216,7 @@
         <v>29.265000000000001</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>1841</v>
       </c>
@@ -45130,7 +45226,7 @@
       <c r="C297">
         <v>15</v>
       </c>
-      <c r="D297" s="15">
+      <c r="D297" s="12">
         <v>14991</v>
       </c>
       <c r="E297" s="8">
@@ -45167,7 +45263,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>1841</v>
       </c>
@@ -45177,7 +45273,7 @@
       <c r="C298">
         <v>16</v>
       </c>
-      <c r="D298" s="15">
+      <c r="D298" s="12">
         <v>14992</v>
       </c>
       <c r="E298" s="8">
@@ -45214,7 +45310,7 @@
         <v>29.257999999999999</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>1841</v>
       </c>
@@ -45224,7 +45320,7 @@
       <c r="C299">
         <v>17</v>
       </c>
-      <c r="D299" s="15">
+      <c r="D299" s="12">
         <v>14993</v>
       </c>
       <c r="E299" s="8">
@@ -45261,7 +45357,7 @@
         <v>29.297999999999998</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>1841</v>
       </c>
@@ -45271,7 +45367,7 @@
       <c r="C300">
         <v>18</v>
       </c>
-      <c r="D300" s="15">
+      <c r="D300" s="12">
         <v>14994</v>
       </c>
       <c r="E300" s="8">
@@ -45308,7 +45404,7 @@
         <v>29.324999999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>1841</v>
       </c>
@@ -45318,7 +45414,7 @@
       <c r="C301">
         <v>19</v>
       </c>
-      <c r="D301" s="15">
+      <c r="D301" s="12">
         <v>14995</v>
       </c>
       <c r="E301" s="8">
@@ -45355,7 +45451,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>1841</v>
       </c>
@@ -45365,7 +45461,7 @@
       <c r="C302">
         <v>20</v>
       </c>
-      <c r="D302" s="15">
+      <c r="D302" s="12">
         <v>14996</v>
       </c>
       <c r="E302" s="8">
@@ -45402,7 +45498,7 @@
         <v>29.31</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>1841</v>
       </c>
@@ -45412,7 +45508,7 @@
       <c r="C303">
         <v>21</v>
       </c>
-      <c r="D303" s="15">
+      <c r="D303" s="12">
         <v>14997</v>
       </c>
       <c r="E303" s="8">
@@ -45449,7 +45545,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>1841</v>
       </c>
@@ -45459,7 +45555,7 @@
       <c r="C304">
         <v>22</v>
       </c>
-      <c r="D304" s="15">
+      <c r="D304" s="12">
         <v>14998</v>
       </c>
       <c r="E304" s="8">
@@ -45496,7 +45592,7 @@
         <v>29.29</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>1841</v>
       </c>
@@ -45506,7 +45602,7 @@
       <c r="C305">
         <v>23</v>
       </c>
-      <c r="D305" s="15">
+      <c r="D305" s="12">
         <v>14999</v>
       </c>
       <c r="E305" s="8">
@@ -45543,7 +45639,7 @@
         <v>29.295000000000002</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>1841</v>
       </c>
@@ -45553,7 +45649,7 @@
       <c r="C306">
         <v>24</v>
       </c>
-      <c r="D306" s="15">
+      <c r="D306" s="12">
         <v>15000</v>
       </c>
       <c r="E306" s="8">
@@ -45590,7 +45686,7 @@
         <v>29.27</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>1841</v>
       </c>
@@ -45600,7 +45696,7 @@
       <c r="C307">
         <v>25</v>
       </c>
-      <c r="D307" s="15">
+      <c r="D307" s="12">
         <v>15001</v>
       </c>
       <c r="E307" s="8">
@@ -45637,7 +45733,7 @@
         <v>29.285</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>1841</v>
       </c>
@@ -45647,7 +45743,7 @@
       <c r="C308">
         <v>26</v>
       </c>
-      <c r="D308" s="15">
+      <c r="D308" s="12">
         <v>15002</v>
       </c>
       <c r="E308" s="8">
@@ -45684,7 +45780,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>1841</v>
       </c>
@@ -45694,7 +45790,7 @@
       <c r="C309">
         <v>27</v>
       </c>
-      <c r="D309" s="15">
+      <c r="D309" s="12">
         <v>15003</v>
       </c>
       <c r="E309" s="8">
@@ -45731,7 +45827,7 @@
         <v>29.254000000000001</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>1841</v>
       </c>
@@ -45741,7 +45837,7 @@
       <c r="C310">
         <v>28</v>
       </c>
-      <c r="D310" s="15">
+      <c r="D310" s="12">
         <v>15004</v>
       </c>
       <c r="E310" s="8">
@@ -45778,7 +45874,7 @@
         <v>29.248000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>1841</v>
       </c>
@@ -45788,7 +45884,7 @@
       <c r="C311">
         <v>29</v>
       </c>
-      <c r="D311" s="15">
+      <c r="D311" s="12">
         <v>15005</v>
       </c>
       <c r="E311" s="8">
@@ -45825,7 +45921,7 @@
         <v>29.257999999999999</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>1841</v>
       </c>
@@ -45835,7 +45931,7 @@
       <c r="C312">
         <v>30</v>
       </c>
-      <c r="D312" s="15">
+      <c r="D312" s="12">
         <v>15006</v>
       </c>
       <c r="E312" s="8">
@@ -45872,7 +45968,7 @@
         <v>29.28</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>1841</v>
       </c>
@@ -45882,7 +45978,7 @@
       <c r="C313">
         <v>31</v>
       </c>
-      <c r="D313" s="15">
+      <c r="D313" s="12">
         <v>15007</v>
       </c>
       <c r="E313" s="8">
@@ -45919,7 +46015,7 @@
         <v>29.294</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>1841</v>
       </c>
@@ -45929,7 +46025,7 @@
       <c r="C314">
         <v>1</v>
       </c>
-      <c r="D314" s="15">
+      <c r="D314" s="12">
         <v>15008</v>
       </c>
       <c r="E314" s="8">
@@ -45966,7 +46062,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>1841</v>
       </c>
@@ -45976,7 +46072,7 @@
       <c r="C315">
         <v>2</v>
       </c>
-      <c r="D315" s="15">
+      <c r="D315" s="12">
         <v>15009</v>
       </c>
       <c r="E315" s="8">
@@ -46013,7 +46109,7 @@
         <v>29.28</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>1841</v>
       </c>
@@ -46023,7 +46119,7 @@
       <c r="C316">
         <v>3</v>
       </c>
-      <c r="D316" s="15">
+      <c r="D316" s="12">
         <v>15010</v>
       </c>
       <c r="E316" s="8">
@@ -46063,7 +46159,7 @@
         <v>29.274999999999999</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>1841</v>
       </c>
@@ -46073,7 +46169,7 @@
       <c r="C317">
         <v>4</v>
       </c>
-      <c r="D317" s="15">
+      <c r="D317" s="12">
         <v>15011</v>
       </c>
       <c r="E317" s="8">
@@ -46110,7 +46206,7 @@
         <v>29.285</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>1841</v>
       </c>
@@ -46120,7 +46216,7 @@
       <c r="C318">
         <v>5</v>
       </c>
-      <c r="D318" s="15">
+      <c r="D318" s="12">
         <v>15012</v>
       </c>
       <c r="E318" s="8">
@@ -46160,7 +46256,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>1841</v>
       </c>
@@ -46170,7 +46266,7 @@
       <c r="C319">
         <v>6</v>
       </c>
-      <c r="D319" s="15">
+      <c r="D319" s="12">
         <v>15013</v>
       </c>
       <c r="E319" s="8">
@@ -46207,7 +46303,7 @@
         <v>29.295000000000002</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>1841</v>
       </c>
@@ -46217,7 +46313,7 @@
       <c r="C320">
         <v>7</v>
       </c>
-      <c r="D320" s="15">
+      <c r="D320" s="12">
         <v>15014</v>
       </c>
       <c r="E320" s="8">
@@ -46254,7 +46350,7 @@
         <v>29.248000000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>1841</v>
       </c>
@@ -46264,7 +46360,7 @@
       <c r="C321">
         <v>8</v>
       </c>
-      <c r="D321" s="15">
+      <c r="D321" s="12">
         <v>15015</v>
       </c>
       <c r="E321" s="8">
@@ -46301,7 +46397,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>1841</v>
       </c>
@@ -46311,7 +46407,7 @@
       <c r="C322">
         <v>9</v>
       </c>
-      <c r="D322" s="15">
+      <c r="D322" s="12">
         <v>15016</v>
       </c>
       <c r="E322" s="8">
@@ -46348,7 +46444,7 @@
         <v>29.263000000000002</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>1841</v>
       </c>
@@ -46358,7 +46454,7 @@
       <c r="C323">
         <v>10</v>
       </c>
-      <c r="D323" s="15">
+      <c r="D323" s="12">
         <v>15017</v>
       </c>
       <c r="E323" s="8">
@@ -46395,7 +46491,7 @@
         <v>29.277000000000001</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>1841</v>
       </c>
@@ -46405,7 +46501,7 @@
       <c r="C324">
         <v>11</v>
       </c>
-      <c r="D324" s="15">
+      <c r="D324" s="12">
         <v>15018</v>
       </c>
       <c r="E324" s="8">
@@ -46442,7 +46538,7 @@
         <v>29.265000000000001</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>1841</v>
       </c>
@@ -46452,7 +46548,7 @@
       <c r="C325">
         <v>12</v>
       </c>
-      <c r="D325" s="15">
+      <c r="D325" s="12">
         <v>15019</v>
       </c>
       <c r="E325" s="8">
@@ -46489,7 +46585,7 @@
         <v>29.233000000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>1841</v>
       </c>
@@ -46499,7 +46595,7 @@
       <c r="C326">
         <v>13</v>
       </c>
-      <c r="D326" s="15">
+      <c r="D326" s="12">
         <v>15020</v>
       </c>
       <c r="E326" s="8">
@@ -46536,7 +46632,7 @@
         <v>29.248000000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>1841</v>
       </c>
@@ -46546,7 +46642,7 @@
       <c r="C327">
         <v>14</v>
       </c>
-      <c r="D327" s="15">
+      <c r="D327" s="12">
         <v>15021</v>
       </c>
       <c r="E327" s="8">
@@ -46583,7 +46679,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>1841</v>
       </c>
@@ -46593,7 +46689,7 @@
       <c r="C328">
         <v>15</v>
       </c>
-      <c r="D328" s="15">
+      <c r="D328" s="12">
         <v>15022</v>
       </c>
       <c r="E328" s="8">
@@ -46633,7 +46729,7 @@
         <v>29.295000000000002</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>1841</v>
       </c>
@@ -46643,7 +46739,7 @@
       <c r="C329">
         <v>16</v>
       </c>
-      <c r="D329" s="15">
+      <c r="D329" s="12">
         <v>15023</v>
       </c>
       <c r="E329" s="8">
@@ -46680,7 +46776,7 @@
         <v>29.263000000000002</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>1841</v>
       </c>
@@ -46690,7 +46786,7 @@
       <c r="C330">
         <v>17</v>
       </c>
-      <c r="D330" s="15">
+      <c r="D330" s="12">
         <v>15024</v>
       </c>
       <c r="E330" s="8">
@@ -46727,7 +46823,7 @@
         <v>29.31</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>1841</v>
       </c>
@@ -46737,7 +46833,7 @@
       <c r="C331">
         <v>18</v>
       </c>
-      <c r="D331" s="15">
+      <c r="D331" s="12">
         <v>15025</v>
       </c>
       <c r="E331" s="8">
@@ -46774,7 +46870,7 @@
         <v>29.315000000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>1841</v>
       </c>
@@ -46784,7 +46880,7 @@
       <c r="C332">
         <v>19</v>
       </c>
-      <c r="D332" s="15">
+      <c r="D332" s="12">
         <v>15026</v>
       </c>
       <c r="E332" s="8">
@@ -46821,7 +46917,7 @@
         <v>29.295000000000002</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>1841</v>
       </c>
@@ -46831,7 +46927,7 @@
       <c r="C333">
         <v>20</v>
       </c>
-      <c r="D333" s="15">
+      <c r="D333" s="12">
         <v>15027</v>
       </c>
       <c r="E333" s="8">
@@ -46871,7 +46967,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>1841</v>
       </c>
@@ -46881,7 +46977,7 @@
       <c r="C334">
         <v>21</v>
       </c>
-      <c r="D334" s="15">
+      <c r="D334" s="12">
         <v>15028</v>
       </c>
       <c r="E334" s="8">
@@ -46918,7 +47014,7 @@
         <v>29.312000000000001</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>1841</v>
       </c>
@@ -46928,7 +47024,7 @@
       <c r="C335">
         <v>22</v>
       </c>
-      <c r="D335" s="15">
+      <c r="D335" s="12">
         <v>15029</v>
       </c>
       <c r="E335" s="8">
@@ -46965,7 +47061,7 @@
         <v>29.305</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>1841</v>
       </c>
@@ -46975,7 +47071,7 @@
       <c r="C336">
         <v>23</v>
       </c>
-      <c r="D336" s="15">
+      <c r="D336" s="12">
         <v>15030</v>
       </c>
       <c r="E336" s="8">
@@ -47012,7 +47108,7 @@
         <v>29.31</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>1841</v>
       </c>
@@ -47022,7 +47118,7 @@
       <c r="C337">
         <v>24</v>
       </c>
-      <c r="D337" s="15">
+      <c r="D337" s="12">
         <v>15031</v>
       </c>
       <c r="E337" s="8">
@@ -47059,7 +47155,7 @@
         <v>29.29</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>1841</v>
       </c>
@@ -47069,7 +47165,7 @@
       <c r="C338">
         <v>25</v>
       </c>
-      <c r="D338" s="15">
+      <c r="D338" s="12">
         <v>15032</v>
       </c>
       <c r="E338" s="8">
@@ -47106,7 +47202,7 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>1841</v>
       </c>
@@ -47116,7 +47212,7 @@
       <c r="C339">
         <v>26</v>
       </c>
-      <c r="D339" s="15">
+      <c r="D339" s="12">
         <v>15033</v>
       </c>
       <c r="E339" s="8">
@@ -47153,7 +47249,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>1841</v>
       </c>
@@ -47163,7 +47259,7 @@
       <c r="C340">
         <v>27</v>
       </c>
-      <c r="D340" s="15">
+      <c r="D340" s="12">
         <v>15034</v>
       </c>
       <c r="E340" s="8">
@@ -47200,7 +47296,7 @@
         <v>29.318000000000001</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>1841</v>
       </c>
@@ -47210,7 +47306,7 @@
       <c r="C341">
         <v>28</v>
       </c>
-      <c r="D341" s="15">
+      <c r="D341" s="12">
         <v>15035</v>
       </c>
       <c r="E341" s="8">
@@ -47261,14 +47357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
